--- a/generated_reports/138/ControlPlane/previous_trend_excel.xlsx
+++ b/generated_reports/138/ControlPlane/previous_trend_excel.xlsx
@@ -1131,7 +1131,7 @@
         <v>137006</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2">
@@ -1152,16 +1152,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.59% (134.50 GB)</t>
+          <t>53.47% (134.22 GB)</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>16.06% (40.30 GB)</t>
+          <t>16.17% (40.58 GB)</t>
         </is>
       </c>
       <c r="F2" s="6" t="n">
-        <v>23.06</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="3">
@@ -1182,16 +1182,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.67% (134.70 GB)</t>
+          <t>53.56% (134.45 GB)</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>3.81% (9.56 GB)</t>
+          <t>3.91% (9.82 GB)</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>6.63</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -1212,16 +1212,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49.71% (124.78 GB)</t>
+          <t>49.66% (124.65 GB)</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>8.23% (20.65 GB)</t>
+          <t>8.28% (20.79 GB)</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>14.2</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="5">
@@ -1242,16 +1242,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.83% (101.21 GB)</t>
+          <t>53.77% (101.09 GB)</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>8.41% (15.81 GB)</t>
+          <t>8.47% (15.93 GB)</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.51</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="6">
@@ -1272,16 +1272,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.92% (93.86 GB)</t>
+          <t>49.92% (93.85 GB)</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>12.16% (22.87 GB)</t>
+          <t>12.17% (22.87 GB)</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19.59</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="7">
@@ -1302,16 +1302,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>51.57% (96.94 GB)</t>
+          <t>51.52% (96.85 GB)</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>12.59% (23.67 GB)</t>
+          <t>12.64% (23.76 GB)</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19.62</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="8">
@@ -1332,16 +1332,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.18% (88.70 GB)</t>
+          <t>47.02% (88.40 GB)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>12.12% (22.79 GB)</t>
+          <t>11.96% (22.49 GB)</t>
         </is>
       </c>
       <c r="F8" s="7" t="n">
-        <v>34.57</v>
+        <v>34.12</v>
       </c>
     </row>
     <row r="9">
@@ -1362,16 +1362,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49.46% (92.99 GB)</t>
+          <t>49.21% (92.51 GB)</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>15.09% (28.38 GB)</t>
+          <t>14.84% (27.89 GB)</t>
         </is>
       </c>
       <c r="F9" s="7" t="n">
-        <v>43.92</v>
+        <v>43.17</v>
       </c>
     </row>
     <row r="10">
@@ -1392,16 +1392,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.37% (87.18 GB)</t>
+          <t>46.12% (86.70 GB)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>15.96% (30.01 GB)</t>
+          <t>15.71% (29.53 GB)</t>
         </is>
       </c>
       <c r="F10" s="7" t="n">
-        <v>52.48</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="11">
@@ -1422,16 +1422,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.78% (97.35 GB)</t>
+          <t>50.96% (95.80 GB)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>26.91% (50.59 GB)</t>
+          <t>26.09% (49.04 GB)</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
-        <v>108.21</v>
+        <v>104.89</v>
       </c>
     </row>
     <row r="12">
@@ -1452,16 +1452,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.25% (100.11 GB)</t>
+          <t>52.46% (98.63 GB)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>19.74% (37.11 GB)</t>
+          <t>18.95% (35.62 GB)</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>58.91</v>
+        <v>56.55</v>
       </c>
     </row>
     <row r="13">
@@ -1482,16 +1482,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.36% (98.44 GB)</t>
+          <t>51.61% (97.03 GB)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>20.02% (37.65 GB)</t>
+          <t>19.27% (36.24 GB)</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>61.92</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="14">
@@ -1512,16 +1512,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53.49% (134.26 GB)</t>
+          <t>53.48% (134.24 GB)</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>3.77% (9.46 GB)</t>
+          <t>3.77% (9.45 GB)</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>7.58</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="15">
@@ -1542,16 +1542,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.00% (107.94 GB)</t>
+          <t>42.96% (107.83 GB)</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>2.60% (6.51 GB)</t>
+          <t>2.64% (6.62 GB)</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.69</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="16">
@@ -1572,16 +1572,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>40.87% (102.59 GB)</t>
+          <t>40.80% (102.41 GB)</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>5.68% (14.25 GB)</t>
+          <t>5.74% (14.42 GB)</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>12.19</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="17">
@@ -1602,16 +1602,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.81% (101.17 GB)</t>
+          <t>53.80% (101.14 GB)</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>2.91% (5.47 GB)</t>
+          <t>2.93% (5.50 GB)</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>5.13</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="18">
@@ -1632,16 +1632,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>51.27% (96.39 GB)</t>
+          <t>51.34% (96.53 GB)</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>5.78% (10.86 GB)</t>
+          <t>5.70% (10.72 GB)</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10.13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1662,16 +1662,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.92% (99.50 GB)</t>
+          <t>52.78% (99.23 GB)</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>3.46% (6.50 GB)</t>
+          <t>3.60% (6.77 GB)</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6.14</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="20">
@@ -1692,16 +1692,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>41.86% (78.70 GB)</t>
+          <t>41.65% (78.30 GB)</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>14.86% (27.94 GB)</t>
+          <t>14.65% (27.53 GB)</t>
         </is>
       </c>
       <c r="F20" s="7" t="n">
-        <v>55.03</v>
+        <v>54.24</v>
       </c>
     </row>
     <row r="21">
@@ -1722,16 +1722,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.93% (91.98 GB)</t>
+          <t>47.97% (90.18 GB)</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>21.35% (40.14 GB)</t>
+          <t>20.39% (38.34 GB)</t>
         </is>
       </c>
       <c r="F21" s="7" t="n">
-        <v>77.43000000000001</v>
+        <v>73.95</v>
       </c>
     </row>
     <row r="22">
@@ -1752,16 +1752,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>49.09% (92.28 GB)</t>
+          <t>48.14% (90.51 GB)</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>23.00% (43.24 GB)</t>
+          <t>22.05% (41.46 GB)</t>
         </is>
       </c>
       <c r="F22" s="7" t="n">
-        <v>88.15000000000001</v>
+        <v>84.53</v>
       </c>
     </row>
     <row r="23">
@@ -1782,16 +1782,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.31% (90.82 GB)</t>
+          <t>47.10% (88.55 GB)</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>21.50% (40.43 GB)</t>
+          <t>20.29% (38.15 GB)</t>
         </is>
       </c>
       <c r="F23" s="7" t="n">
-        <v>80.22</v>
+        <v>75.70999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1812,16 +1812,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.78% (91.71 GB)</t>
+          <t>48.33% (90.87 GB)</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>17.48% (32.86 GB)</t>
+          <t>17.03% (32.02 GB)</t>
         </is>
       </c>
       <c r="F24" s="7" t="n">
-        <v>55.85</v>
+        <v>54.41</v>
       </c>
     </row>
     <row r="25">
@@ -1842,16 +1842,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.95% (92.02 GB)</t>
+          <t>48.22% (90.65 GB)</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>19.30% (36.29 GB)</t>
+          <t>18.57% (34.92 GB)</t>
         </is>
       </c>
       <c r="F25" s="7" t="n">
-        <v>65.12</v>
+        <v>62.66</v>
       </c>
     </row>
     <row r="26">
@@ -1904,16 +1904,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.10% (3.95 GB)</t>
+          <t>2.10% (3.96 GB)</t>
         </is>
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>11.52% (21.66 GB)</t>
+          <t>11.52% (21.65 GB)</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>84.56999999999999</v>
+        <v>84.55</v>
       </c>
     </row>
     <row r="28">
@@ -1934,16 +1934,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13.68% (25.72 GB)</t>
+          <t>13.74% (25.83 GB)</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>12.48% (23.46 GB)</t>
+          <t>12.54% (23.57 GB)</t>
         </is>
       </c>
       <c r="F28" s="7" t="n">
-        <v>1041.15</v>
+        <v>1046.09</v>
       </c>
     </row>
     <row r="29">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6.42% (3.98 GB)</t>
+          <t>6.43% (3.99 GB)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="F35" s="6" t="n">
-        <v>80.13</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="36">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6.78% (3.18 GB)</t>
+          <t>6.70% (3.15 GB)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16.32% (7.67 GB)</t>
+          <t>16.89% (7.94 GB)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8.50% (3.99 GB)</t>
+          <t>8.45% (3.97 GB)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2287,11 +2287,11 @@
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>3.91% (7.36 GB)</t>
+          <t>3.92% (7.36 GB)</t>
         </is>
       </c>
       <c r="F39" s="7" t="n">
-        <v>118.47</v>
+        <v>118.57</v>
       </c>
     </row>
     <row r="40">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F41" s="7" t="n">
-        <v>112.1</v>
+        <v>112.13</v>
       </c>
     </row>
     <row r="42">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.94% (13.05 GB)</t>
+          <t>6.94% (13.06 GB)</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>3.54% (6.65 GB)</t>
+          <t>3.54% (6.66 GB)</t>
         </is>
       </c>
       <c r="F43" s="7" t="n">
-        <v>103.95</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="44">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="F45" s="7" t="n">
-        <v>123.87</v>
+        <v>123.89</v>
       </c>
     </row>
     <row r="46">
@@ -2492,16 +2492,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.24% (13.62 GB)</t>
+          <t>7.25% (13.64 GB)</t>
         </is>
       </c>
       <c r="E46" s="7" t="inlineStr">
         <is>
-          <t>4.04% (7.60 GB)</t>
+          <t>4.05% (7.62 GB)</t>
         </is>
       </c>
       <c r="F46" s="7" t="n">
-        <v>126.4</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="47">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="F47" s="7" t="n">
-        <v>116.6</v>
+        <v>116.56</v>
       </c>
     </row>
     <row r="48">
@@ -2552,16 +2552,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6.94% (13.04 GB)</t>
+          <t>6.95% (13.06 GB)</t>
         </is>
       </c>
       <c r="E48" s="7" t="inlineStr">
         <is>
-          <t>3.54% (6.65 GB)</t>
+          <t>3.55% (6.67 GB)</t>
         </is>
       </c>
       <c r="F48" s="7" t="n">
-        <v>104.18</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="49">
@@ -2582,16 +2582,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6.91% (12.99 GB)</t>
+          <t>6.92% (13.00 GB)</t>
         </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>3.61% (6.78 GB)</t>
+          <t>3.62% (6.80 GB)</t>
         </is>
       </c>
       <c r="F49" s="7" t="n">
-        <v>109.36</v>
+        <v>109.59</v>
       </c>
     </row>
     <row r="50">
@@ -2612,16 +2612,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.26% (13.64 GB)</t>
+          <t>7.27% (13.66 GB)</t>
         </is>
       </c>
       <c r="E50" s="7" t="inlineStr">
         <is>
-          <t>3.86% (7.26 GB)</t>
+          <t>3.87% (7.28 GB)</t>
         </is>
       </c>
       <c r="F50" s="7" t="n">
-        <v>113.62</v>
+        <v>113.97</v>
       </c>
     </row>
     <row r="51">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.73% (16.90 GB)</t>
+          <t>6.74% (16.92 GB)</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>1.19% (2.98 GB)</t>
+          <t>1.20% (3.00 GB)</t>
         </is>
       </c>
       <c r="F51" s="7" t="n">
-        <v>21.41</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="52">
@@ -2672,16 +2672,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.27% (15.75 GB)</t>
+          <t>6.23% (15.63 GB)</t>
         </is>
       </c>
       <c r="E52" s="7" t="inlineStr">
         <is>
-          <t>0.35% (0.88 GB)</t>
+          <t>0.30% (0.76 GB)</t>
         </is>
       </c>
       <c r="F52" s="7" t="n">
-        <v>5.9</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="53">
@@ -2702,16 +2702,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6.76% (16.97 GB)</t>
+          <t>6.76% (16.96 GB)</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>0.65% (1.64 GB)</t>
+          <t>0.65% (1.63 GB)</t>
         </is>
       </c>
       <c r="F53" s="7" t="n">
-        <v>10.67</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="54">
@@ -2732,16 +2732,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8.95% (16.83 GB)</t>
+          <t>8.87% (16.68 GB)</t>
         </is>
       </c>
       <c r="E54" s="7" t="inlineStr">
         <is>
-          <t>0.91% (1.71 GB)</t>
+          <t>0.83% (1.56 GB)</t>
         </is>
       </c>
       <c r="F54" s="7" t="n">
-        <v>11.35</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="55">
@@ -2762,16 +2762,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8.76% (16.47 GB)</t>
+          <t>8.73% (16.42 GB)</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>0.17% (0.33 GB)</t>
+          <t>0.15% (0.28 GB)</t>
         </is>
       </c>
       <c r="F55" s="7" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="56">
@@ -2792,16 +2792,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8.81% (16.55 GB)</t>
+          <t>8.84% (16.61 GB)</t>
         </is>
       </c>
       <c r="E56" s="7" t="inlineStr">
         <is>
-          <t>0.14% (0.26 GB)</t>
+          <t>0.17% (0.32 GB)</t>
         </is>
       </c>
       <c r="F56" s="7" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="57">
@@ -2822,16 +2822,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6.17% (15.48 GB)</t>
+          <t>6.18% (15.52 GB)</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>1.30% (3.27 GB)</t>
+          <t>1.32% (3.32 GB)</t>
         </is>
       </c>
       <c r="F57" s="7" t="n">
-        <v>26.84</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="58">
@@ -2852,16 +2852,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6.67% (16.75 GB)</t>
+          <t>6.70% (16.81 GB)</t>
         </is>
       </c>
       <c r="E58" s="7" t="inlineStr">
         <is>
-          <t>1.24% (3.10 GB)</t>
+          <t>1.26% (3.16 GB)</t>
         </is>
       </c>
       <c r="F58" s="7" t="n">
-        <v>22.75</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="59">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.78% (17.02 GB)</t>
+          <t>6.78% (17.01 GB)</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>0.77% (1.94 GB)</t>
+          <t>0.77% (1.93 GB)</t>
         </is>
       </c>
       <c r="F59" s="7" t="n">
-        <v>12.87</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="60">
@@ -2912,16 +2912,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8.94% (16.81 GB)</t>
+          <t>9.01% (16.94 GB)</t>
         </is>
       </c>
       <c r="E60" s="7" t="inlineStr">
         <is>
-          <t>1.26% (2.37 GB)</t>
+          <t>1.33% (2.50 GB)</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>16.44</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="61">
@@ -2942,16 +2942,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8.77% (16.48 GB)</t>
+          <t>8.82% (16.58 GB)</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>0.88% (1.65 GB)</t>
+          <t>0.93% (1.75 GB)</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>11.13</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="62">
@@ -2972,16 +2972,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8.77% (16.49 GB)</t>
+          <t>8.75% (16.45 GB)</t>
         </is>
       </c>
       <c r="E62" s="7" t="inlineStr">
         <is>
-          <t>1.16% (2.18 GB)</t>
+          <t>1.14% (2.14 GB)</t>
         </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>15.24</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="63">
@@ -3002,16 +3002,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.80% (5.27 GB)</t>
+          <t>2.82% (5.29 GB)</t>
         </is>
       </c>
       <c r="E63" s="6" t="inlineStr">
         <is>
-          <t>0.24% (0.45 GB)</t>
+          <t>0.23% (0.43 GB)</t>
         </is>
       </c>
       <c r="F63" s="6" t="n">
-        <v>7.91</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="64">
@@ -3037,11 +3037,11 @@
       </c>
       <c r="E64" s="7" t="inlineStr">
         <is>
-          <t>0.01% (0.01 GB)</t>
+          <t>0.01% (0.02 GB)</t>
         </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65">
@@ -3092,16 +3092,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.36% (6.31 GB)</t>
+          <t>3.36% (6.33 GB)</t>
         </is>
       </c>
       <c r="E66" s="6" t="inlineStr">
         <is>
-          <t>0.09% (0.17 GB)</t>
+          <t>0.08% (0.15 GB)</t>
         </is>
       </c>
       <c r="F66" s="6" t="n">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="67">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.39% (6.37 GB)</t>
+          <t>3.38% (6.36 GB)</t>
         </is>
       </c>
       <c r="E67" s="6" t="inlineStr">
         <is>
-          <t>0.01% (0.03 GB)</t>
+          <t>0.02% (0.03 GB)</t>
         </is>
       </c>
       <c r="F67" s="6" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="68">
@@ -3152,16 +3152,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.37% (6.33 GB)</t>
+          <t>3.38% (6.35 GB)</t>
         </is>
       </c>
       <c r="E68" s="7" t="inlineStr">
         <is>
-          <t>0.01% (0.02 GB)</t>
+          <t>0.02% (0.05 GB)</t>
         </is>
       </c>
       <c r="F68" s="7" t="n">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="69">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.93% (5.51 GB)</t>
+          <t>2.93% (5.52 GB)</t>
         </is>
       </c>
       <c r="E69" s="7" t="inlineStr">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="F69" s="7" t="n">
-        <v>9.74</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="70">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="F71" s="7" t="n">
-        <v>8.94</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="72">
@@ -3272,16 +3272,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.37% (6.33 GB)</t>
+          <t>3.37% (6.34 GB)</t>
         </is>
       </c>
       <c r="E72" s="7" t="inlineStr">
         <is>
-          <t>0.36% (0.68 GB)</t>
+          <t>0.37% (0.69 GB)</t>
         </is>
       </c>
       <c r="F72" s="7" t="n">
-        <v>12.11</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="73">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.40% (6.39 GB)</t>
+          <t>3.40% (6.38 GB)</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="F73" s="7" t="n">
-        <v>7.27</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="74">
@@ -3332,16 +3332,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.32% (6.23 GB)</t>
+          <t>3.32% (6.24 GB)</t>
         </is>
       </c>
       <c r="E74" s="7" t="inlineStr">
         <is>
-          <t>0.24% (0.46 GB)</t>
+          <t>0.25% (0.46 GB)</t>
         </is>
       </c>
       <c r="F74" s="7" t="n">
-        <v>7.92</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="75">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11.16% (28.02 GB)</t>
+          <t>11.08% (27.81 GB)</t>
         </is>
       </c>
       <c r="E75" s="6" t="inlineStr">
         <is>
-          <t>11.25% (28.23 GB)</t>
+          <t>11.33% (28.43 GB)</t>
         </is>
       </c>
       <c r="F75" s="6" t="n">
-        <v>50.19</v>
+        <v>50.56</v>
       </c>
     </row>
     <row r="76">
@@ -3542,16 +3542,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>24.36% (61.14 GB)</t>
+          <t>24.35% (61.12 GB)</t>
         </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>8.90% (22.35 GB)</t>
+          <t>8.90% (22.33 GB)</t>
         </is>
       </c>
       <c r="F81" s="7" t="n">
-        <v>57.61</v>
+        <v>57.56</v>
       </c>
     </row>
     <row r="82">
@@ -3572,16 +3572,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>16.44% (41.27 GB)</t>
+          <t>16.39% (41.15 GB)</t>
         </is>
       </c>
       <c r="E82" s="7" t="inlineStr">
         <is>
-          <t>1.14% (2.85 GB)</t>
+          <t>1.09% (2.73 GB)</t>
         </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>7.43</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="83">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>16.34% (41.00 GB)</t>
+          <t>16.29% (40.90 GB)</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>0.82% (2.06 GB)</t>
+          <t>0.78% (1.96 GB)</t>
         </is>
       </c>
       <c r="F83" s="7" t="n">
-        <v>5.29</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="84">
@@ -3632,16 +3632,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17.74% (33.35 GB)</t>
+          <t>17.69% (33.26 GB)</t>
         </is>
       </c>
       <c r="E84" s="7" t="inlineStr">
         <is>
-          <t>1.51% (2.84 GB)</t>
+          <t>1.46% (2.74 GB)</t>
         </is>
       </c>
       <c r="F84" s="7" t="n">
-        <v>9.300000000000001</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="85">
@@ -3662,16 +3662,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>17.43% (32.77 GB)</t>
+          <t>17.38% (32.68 GB)</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>1.30% (2.44 GB)</t>
+          <t>1.25% (2.34 GB)</t>
         </is>
       </c>
       <c r="F85" s="7" t="n">
-        <v>8.039999999999999</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="86">
@@ -3692,16 +3692,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>17.54% (32.98 GB)</t>
+          <t>17.49% (32.88 GB)</t>
         </is>
       </c>
       <c r="E86" s="7" t="inlineStr">
         <is>
-          <t>1.53% (2.87 GB)</t>
+          <t>1.48% (2.78 GB)</t>
         </is>
       </c>
       <c r="F86" s="7" t="n">
-        <v>9.539999999999999</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="87">
@@ -3722,16 +3722,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.75% (1.41 GB)</t>
+          <t>0.74% (1.39 GB)</t>
         </is>
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>0.41% (0.78 GB)</t>
+          <t>0.40% (0.76 GB)</t>
         </is>
       </c>
       <c r="F87" s="7" t="n">
-        <v>122.96</v>
+        <v>120.19</v>
       </c>
     </row>
     <row r="88">
@@ -3752,16 +3752,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.73% (1.38 GB)</t>
+          <t>0.72% (1.36 GB)</t>
         </is>
       </c>
       <c r="E88" s="7" t="inlineStr">
         <is>
-          <t>0.40% (0.75 GB)</t>
+          <t>0.39% (0.72 GB)</t>
         </is>
       </c>
       <c r="F88" s="7" t="n">
-        <v>117.83</v>
+        <v>114.49</v>
       </c>
     </row>
     <row r="89">
@@ -3782,16 +3782,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.78% (1.47 GB)</t>
+          <t>0.77% (1.45 GB)</t>
         </is>
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>0.44% (0.83 GB)</t>
+          <t>0.43% (0.82 GB)</t>
         </is>
       </c>
       <c r="F89" s="7" t="n">
-        <v>130.41</v>
+        <v>127.68</v>
       </c>
     </row>
     <row r="90">
@@ -3812,16 +3812,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.76% (1.43 GB)</t>
+          <t>0.76% (1.42 GB)</t>
         </is>
       </c>
       <c r="E90" s="7" t="inlineStr">
         <is>
-          <t>0.43% (0.80 GB)</t>
+          <t>0.42% (0.79 GB)</t>
         </is>
       </c>
       <c r="F90" s="7" t="n">
-        <v>126.86</v>
+        <v>124.81</v>
       </c>
     </row>
     <row r="91">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.80% (1.50 GB)</t>
+          <t>0.79% (1.49 GB)</t>
         </is>
       </c>
       <c r="E91" s="7" t="inlineStr">
         <is>
-          <t>0.47% (0.88 GB)</t>
+          <t>0.46% (0.86 GB)</t>
         </is>
       </c>
       <c r="F91" s="7" t="n">
-        <v>139.19</v>
+        <v>137.12</v>
       </c>
     </row>
     <row r="92">
@@ -3872,16 +3872,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.80% (1.51 GB)</t>
+          <t>0.80% (1.50 GB)</t>
         </is>
       </c>
       <c r="E92" s="7" t="inlineStr">
         <is>
-          <t>0.46% (0.87 GB)</t>
+          <t>0.46% (0.86 GB)</t>
         </is>
       </c>
       <c r="F92" s="7" t="n">
-        <v>135.47</v>
+        <v>133.71</v>
       </c>
     </row>
     <row r="93">
@@ -3902,16 +3902,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.77% (1.45 GB)</t>
+          <t>0.77% (1.44 GB)</t>
         </is>
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>0.43% (0.81 GB)</t>
+          <t>0.43% (0.80 GB)</t>
         </is>
       </c>
       <c r="F93" s="7" t="n">
-        <v>126.86</v>
+        <v>125.31</v>
       </c>
     </row>
     <row r="94">
@@ -3932,16 +3932,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.77% (1.44 GB)</t>
+          <t>0.76% (1.43 GB)</t>
         </is>
       </c>
       <c r="E94" s="7" t="inlineStr">
         <is>
-          <t>0.43% (0.81 GB)</t>
+          <t>0.42% (0.80 GB)</t>
         </is>
       </c>
       <c r="F94" s="7" t="n">
-        <v>127.56</v>
+        <v>125.71</v>
       </c>
     </row>
     <row r="95">
@@ -3962,16 +3962,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.79% (1.49 GB)</t>
+          <t>0.79% (1.48 GB)</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>0.45% (0.85 GB)</t>
+          <t>0.45% (0.84 GB)</t>
         </is>
       </c>
       <c r="F95" s="7" t="n">
-        <v>134.18</v>
+        <v>132.76</v>
       </c>
     </row>
     <row r="96">
@@ -3992,16 +3992,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.77% (1.44 GB)</t>
+          <t>0.76% (1.43 GB)</t>
         </is>
       </c>
       <c r="E96" s="7" t="inlineStr">
         <is>
-          <t>0.42% (0.80 GB)</t>
+          <t>0.42% (0.79 GB)</t>
         </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>124.98</v>
+        <v>123.05</v>
       </c>
     </row>
     <row r="97">
@@ -4022,16 +4022,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.85% (1.59 GB)</t>
+          <t>0.84% (1.58 GB)</t>
         </is>
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>0.51% (0.96 GB)</t>
+          <t>0.50% (0.94 GB)</t>
         </is>
       </c>
       <c r="F97" s="7" t="n">
-        <v>149.77</v>
+        <v>148.05</v>
       </c>
     </row>
     <row r="98">
@@ -4052,16 +4052,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.84% (1.57 GB)</t>
+          <t>0.83% (1.56 GB)</t>
         </is>
       </c>
       <c r="E98" s="7" t="inlineStr">
         <is>
-          <t>0.50% (0.94 GB)</t>
+          <t>0.49% (0.92 GB)</t>
         </is>
       </c>
       <c r="F98" s="7" t="n">
-        <v>146.86</v>
+        <v>144.77</v>
       </c>
     </row>
     <row r="99">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>0.50% (0.94 GB)</t>
+          <t>0.47% (0.89 GB)</t>
         </is>
       </c>
       <c r="E111" s="5" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>0.47% (0.89 GB)</t>
+          <t>0.44% (0.83 GB)</t>
         </is>
       </c>
       <c r="E112" s="5" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="D113" s="5" t="inlineStr">
         <is>
-          <t>0.50% (0.95 GB)</t>
+          <t>0.46% (0.87 GB)</t>
         </is>
       </c>
       <c r="E113" s="5" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="D114" s="5" t="inlineStr">
         <is>
-          <t>0.43% (0.81 GB)</t>
+          <t>0.40% (0.75 GB)</t>
         </is>
       </c>
       <c r="E114" s="5" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>0.49% (0.91 GB)</t>
+          <t>0.46% (0.86 GB)</t>
         </is>
       </c>
       <c r="E115" s="5" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D116" s="5" t="inlineStr">
         <is>
-          <t>0.53% (1.00 GB)</t>
+          <t>0.49% (0.92 GB)</t>
         </is>
       </c>
       <c r="E116" s="5" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D117" s="5" t="inlineStr">
         <is>
-          <t>0.36% (0.69 GB)</t>
+          <t>0.34% (0.64 GB)</t>
         </is>
       </c>
       <c r="E117" s="5" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="D118" s="5" t="inlineStr">
         <is>
-          <t>0.39% (0.74 GB)</t>
+          <t>0.36% (0.68 GB)</t>
         </is>
       </c>
       <c r="E118" s="5" t="inlineStr">
@@ -4475,7 +4475,7 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4493,7 +4493,7 @@
         <v>137006</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.13% (4.84 cores)</t>
+          <t>15.18% (4.86 cores)</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>29.36% (9.39 cores)</t>
+          <t>29.30% (9.38 cores)</t>
         </is>
       </c>
       <c r="F2" s="6" t="n">
-        <v>65.98999999999999</v>
+        <v>65.87</v>
       </c>
     </row>
     <row r="3">
@@ -4544,16 +4544,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.23% (4.87 cores)</t>
+          <t>15.15% (4.85 cores)</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>28.82% (9.22 cores)</t>
+          <t>28.90% (9.25 cores)</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>65.42</v>
+        <v>65.61</v>
       </c>
     </row>
     <row r="4">
@@ -4574,16 +4574,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.56% (4.34 cores)</t>
+          <t>13.46% (4.31 cores)</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>26.85% (8.59 cores)</t>
+          <t>26.94% (8.62 cores)</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>66.44</v>
+        <v>66.68000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4604,16 +4604,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.26% (4.24 cores)</t>
+          <t>13.29% (4.25 cores)</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>27.31% (8.74 cores)</t>
+          <t>27.28% (8.73 cores)</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>67.31</v>
+        <v>67.23999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4634,16 +4634,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.36% (4.60 cores)</t>
+          <t>14.50% (4.64 cores)</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>27.17% (8.70 cores)</t>
+          <t>27.03% (8.65 cores)</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>65.42</v>
+        <v>65.08</v>
       </c>
     </row>
     <row r="7">
@@ -4664,16 +4664,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.34% (4.91 cores)</t>
+          <t>15.19% (4.86 cores)</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>26.39% (8.44 cores)</t>
+          <t>26.53% (8.49 cores)</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>63.24</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="8">
@@ -4694,16 +4694,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.21% (12.87 cores)</t>
+          <t>39.69% (12.70 cores)</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>27.87% (8.92 cores)</t>
+          <t>28.38% (9.08 cores)</t>
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>40.93</v>
+        <v>41.69</v>
       </c>
     </row>
     <row r="9">
@@ -4724,16 +4724,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.09% (16.03 cores)</t>
+          <t>48.40% (15.49 cores)</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>6.93% (2.22 cores)</t>
+          <t>8.61% (2.76 cores)</t>
         </is>
       </c>
       <c r="F9" s="6" t="n">
-        <v>12.15</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="10">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.91% (15.33 cores)</t>
+          <t>45.97% (14.71 cores)</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>14.43% (4.62 cores)</t>
+          <t>16.37% (5.24 cores)</t>
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23.14</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="11">
@@ -4784,16 +4784,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>66.67% (21.33 cores)</t>
+          <t>62.17% (19.89 cores)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>15.30% (4.89 cores)</t>
+          <t>10.80% (3.45 cores)</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
-        <v>29.78</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="12">
@@ -4814,16 +4814,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>66.45% (21.26 cores)</t>
+          <t>62.01% (19.84 cores)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>5.43% (1.74 cores)</t>
+          <t>0.99% (0.32 cores)</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>8.890000000000001</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="13">
@@ -4844,16 +4844,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>66.29% (21.21 cores)</t>
+          <t>61.69% (19.74 cores)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>8.51% (2.72 cores)</t>
+          <t>3.91% (1.25 cores)</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>14.73</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="14">
@@ -4909,11 +4909,11 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>26.14% (8.36 cores)</t>
+          <t>26.13% (8.36 cores)</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>67.06</v>
+        <v>67.05</v>
       </c>
     </row>
     <row r="16">
@@ -4939,11 +4939,11 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>25.87% (8.28 cores)</t>
+          <t>25.86% (8.27 cores)</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>66.61</v>
+        <v>66.59</v>
       </c>
     </row>
     <row r="17">
@@ -4964,16 +4964,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.66% (4.05 cores)</t>
+          <t>12.78% (4.09 cores)</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>25.57% (8.18 cores)</t>
+          <t>25.45% (8.14 cores)</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>66.89</v>
+        <v>66.56999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15.81% (5.06 cores)</t>
+          <t>16.40% (5.25 cores)</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>23.74% (7.60 cores)</t>
+          <t>23.15% (7.41 cores)</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60.02</v>
+        <v>58.53</v>
       </c>
     </row>
     <row r="19">
@@ -5024,16 +5024,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.91% (4.13 cores)</t>
+          <t>12.71% (4.07 cores)</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>27.18% (8.70 cores)</t>
+          <t>27.38% (8.76 cores)</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67.79000000000001</v>
+        <v>68.31</v>
       </c>
     </row>
     <row r="20">
@@ -5054,16 +5054,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.96% (15.35 cores)</t>
+          <t>46.50% (14.88 cores)</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>6.14% (1.96 cores)</t>
+          <t>7.60% (2.43 cores)</t>
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>11.35</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="21">
@@ -5084,16 +5084,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>65.66% (21.01 cores)</t>
+          <t>61.06% (19.54 cores)</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>17.16% (5.49 cores)</t>
+          <t>12.56% (4.02 cores)</t>
         </is>
       </c>
       <c r="F21" s="7" t="n">
-        <v>35.38</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="22">
@@ -5114,16 +5114,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>67.64% (21.65 cores)</t>
+          <t>63.15% (20.21 cores)</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>18.38% (5.88 cores)</t>
+          <t>13.88% (4.44 cores)</t>
         </is>
       </c>
       <c r="F22" s="7" t="n">
-        <v>37.3</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="23">
@@ -5144,16 +5144,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>66.84% (21.39 cores)</t>
+          <t>62.30% (19.94 cores)</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>13.73% (4.39 cores)</t>
+          <t>9.18% (2.94 cores)</t>
         </is>
       </c>
       <c r="F23" s="7" t="n">
-        <v>25.84</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="24">
@@ -5174,16 +5174,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>66.45% (21.26 cores)</t>
+          <t>61.89% (19.81 cores)</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>14.90% (4.77 cores)</t>
+          <t>10.34% (3.31 cores)</t>
         </is>
       </c>
       <c r="F24" s="7" t="n">
-        <v>28.91</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="25">
@@ -5204,16 +5204,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>67.90% (21.73 cores)</t>
+          <t>63.53% (20.33 cores)</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>8.89% (2.84 cores)</t>
+          <t>4.52% (1.44 cores)</t>
         </is>
       </c>
       <c r="F25" s="7" t="n">
-        <v>15.06</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="26">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.94% (0.28 cores)</t>
+          <t>6.93% (0.28 cores)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5271,11 +5271,11 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>17.84% (5.71 cores)</t>
+          <t>17.85% (5.71 cores)</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>90.63</v>
+        <v>90.66</v>
       </c>
     </row>
     <row r="28">
@@ -5296,16 +5296,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>96.44% (30.86 cores)</t>
+          <t>96.60% (30.91 cores)</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>91.61% (29.32 cores)</t>
+          <t>91.78% (29.37 cores)</t>
         </is>
       </c>
       <c r="F28" s="7" t="n">
-        <v>1897.45</v>
+        <v>1900.9</v>
       </c>
     </row>
     <row r="29">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.94% (0.20 cores)</t>
+          <t>4.98% (0.20 cores)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13.85% (1.11 cores)</t>
+          <t>13.57% (1.09 cores)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13.97% (1.12 cores)</t>
+          <t>13.60% (1.09 cores)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11.00% (1.76 cores)</t>
+          <t>11.26% (1.80 cores)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6.34% (1.01 cores)</t>
+          <t>6.43% (1.03 cores)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.86% (0.30 cores)</t>
+          <t>1.87% (0.30 cores)</t>
         </is>
       </c>
       <c r="E35" s="6" t="inlineStr">
         <is>
-          <t>2.57% (0.41 cores)</t>
+          <t>2.56% (0.41 cores)</t>
         </is>
       </c>
       <c r="F35" s="6" t="n">
-        <v>57.94</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="36">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.89% (0.46 cores)</t>
+          <t>2.84% (0.45 cores)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.17% (0.51 cores)</t>
+          <t>3.18% (0.51 cores)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.85% (0.46 cores)</t>
+          <t>2.89% (0.46 cores)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5644,16 +5644,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>25.45% (0.25 cores)</t>
+          <t>25.57% (0.26 cores)</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>17.13% (0.17 cores)</t>
+          <t>17.25% (0.17 cores)</t>
         </is>
       </c>
       <c r="F39" s="7" t="n">
-        <v>205.97</v>
+        <v>207.33</v>
       </c>
     </row>
     <row r="40">
@@ -5674,16 +5674,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23.51% (0.24 cores)</t>
+          <t>24.03% (0.24 cores)</t>
         </is>
       </c>
       <c r="E40" s="7" t="inlineStr">
         <is>
-          <t>16.45% (0.16 cores)</t>
+          <t>16.97% (0.17 cores)</t>
         </is>
       </c>
       <c r="F40" s="7" t="n">
-        <v>232.85</v>
+        <v>240.23</v>
       </c>
     </row>
     <row r="41">
@@ -5704,16 +5704,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19.21% (0.19 cores)</t>
+          <t>19.20% (0.19 cores)</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>11.50% (0.12 cores)</t>
+          <t>11.49% (0.11 cores)</t>
         </is>
       </c>
       <c r="F41" s="7" t="n">
-        <v>149.26</v>
+        <v>149.08</v>
       </c>
     </row>
     <row r="42">
@@ -5734,16 +5734,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15.58% (0.16 cores)</t>
+          <t>14.77% (0.15 cores)</t>
         </is>
       </c>
       <c r="E42" s="7" t="inlineStr">
         <is>
-          <t>9.36% (0.09 cores)</t>
+          <t>8.55% (0.09 cores)</t>
         </is>
       </c>
       <c r="F42" s="7" t="n">
-        <v>150.58</v>
+        <v>137.51</v>
       </c>
     </row>
     <row r="43">
@@ -5764,16 +5764,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17.02% (0.17 cores)</t>
+          <t>16.77% (0.17 cores)</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>9.71% (0.10 cores)</t>
+          <t>9.46% (0.09 cores)</t>
         </is>
       </c>
       <c r="F43" s="7" t="n">
-        <v>132.84</v>
+        <v>129.34</v>
       </c>
     </row>
     <row r="44">
@@ -5794,16 +5794,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15.78% (0.16 cores)</t>
+          <t>16.50% (0.16 cores)</t>
         </is>
       </c>
       <c r="E44" s="7" t="inlineStr">
         <is>
-          <t>8.94% (0.09 cores)</t>
+          <t>9.66% (0.10 cores)</t>
         </is>
       </c>
       <c r="F44" s="7" t="n">
-        <v>130.78</v>
+        <v>141.24</v>
       </c>
     </row>
     <row r="45">
@@ -5824,16 +5824,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>18.90% (0.19 cores)</t>
+          <t>18.29% (0.18 cores)</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>11.52% (0.12 cores)</t>
+          <t>10.92% (0.11 cores)</t>
         </is>
       </c>
       <c r="F45" s="7" t="n">
-        <v>156.1</v>
+        <v>147.94</v>
       </c>
     </row>
     <row r="46">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18.03% (0.18 cores)</t>
+          <t>18.76% (0.19 cores)</t>
         </is>
       </c>
       <c r="E46" s="7" t="inlineStr">
         <is>
-          <t>11.22% (0.11 cores)</t>
+          <t>11.95% (0.12 cores)</t>
         </is>
       </c>
       <c r="F46" s="7" t="n">
-        <v>164.82</v>
+        <v>175.53</v>
       </c>
     </row>
     <row r="47">
@@ -5884,16 +5884,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16.76% (0.17 cores)</t>
+          <t>16.78% (0.17 cores)</t>
         </is>
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>10.34% (0.10 cores)</t>
+          <t>10.36% (0.10 cores)</t>
         </is>
       </c>
       <c r="F47" s="7" t="n">
-        <v>161.24</v>
+        <v>161.54</v>
       </c>
     </row>
     <row r="48">
@@ -5914,16 +5914,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17.70% (0.18 cores)</t>
+          <t>18.26% (0.18 cores)</t>
         </is>
       </c>
       <c r="E48" s="7" t="inlineStr">
         <is>
-          <t>10.20% (0.10 cores)</t>
+          <t>10.76% (0.11 cores)</t>
         </is>
       </c>
       <c r="F48" s="7" t="n">
-        <v>136.01</v>
+        <v>143.45</v>
       </c>
     </row>
     <row r="49">
@@ -5944,16 +5944,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16.01% (0.16 cores)</t>
+          <t>16.13% (0.16 cores)</t>
         </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>9.05% (0.09 cores)</t>
+          <t>9.17% (0.09 cores)</t>
         </is>
       </c>
       <c r="F49" s="7" t="n">
-        <v>129.97</v>
+        <v>131.7</v>
       </c>
     </row>
     <row r="50">
@@ -5974,16 +5974,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15.47% (0.15 cores)</t>
+          <t>16.55% (0.17 cores)</t>
         </is>
       </c>
       <c r="E50" s="7" t="inlineStr">
         <is>
-          <t>7.75% (0.08 cores)</t>
+          <t>8.83% (0.09 cores)</t>
         </is>
       </c>
       <c r="F50" s="7" t="n">
-        <v>100.36</v>
+        <v>114.28</v>
       </c>
     </row>
     <row r="51">
@@ -6004,16 +6004,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>30.57% (0.31 cores)</t>
+          <t>28.27% (0.28 cores)</t>
         </is>
       </c>
       <c r="E51" s="6" t="inlineStr">
         <is>
-          <t>2.00% (0.02 cores)</t>
+          <t>4.30% (0.04 cores)</t>
         </is>
       </c>
       <c r="F51" s="6" t="n">
-        <v>6.15</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="52">
@@ -6034,16 +6034,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19.26% (0.19 cores)</t>
+          <t>20.55% (0.21 cores)</t>
         </is>
       </c>
       <c r="E52" s="6" t="inlineStr">
         <is>
-          <t>20.96% (0.21 cores)</t>
+          <t>19.67% (0.20 cores)</t>
         </is>
       </c>
       <c r="F52" s="6" t="n">
-        <v>52.12</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="53">
@@ -6064,16 +6064,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>31.78% (0.32 cores)</t>
+          <t>31.45% (0.31 cores)</t>
         </is>
       </c>
       <c r="E53" s="6" t="inlineStr">
         <is>
-          <t>8.05% (0.08 cores)</t>
+          <t>8.38% (0.08 cores)</t>
         </is>
       </c>
       <c r="F53" s="6" t="n">
-        <v>20.21</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="54">
@@ -6094,16 +6094,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>36.15% (0.36 cores)</t>
-        </is>
-      </c>
-      <c r="E54" s="7" t="inlineStr">
-        <is>
-          <t>0.76% (0.01 cores)</t>
-        </is>
-      </c>
-      <c r="F54" s="7" t="n">
-        <v>2.15</v>
+          <t>35.38% (0.35 cores)</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>0.01% (0.00 cores)</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="55">
@@ -6124,16 +6124,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>33.41% (0.33 cores)</t>
+          <t>32.82% (0.33 cores)</t>
         </is>
       </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>5.10% (0.05 cores)</t>
+          <t>5.69% (0.06 cores)</t>
         </is>
       </c>
       <c r="F55" s="6" t="n">
-        <v>13.23</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="56">
@@ -6154,16 +6154,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>32.04% (0.32 cores)</t>
+          <t>31.51% (0.32 cores)</t>
         </is>
       </c>
       <c r="E56" s="6" t="inlineStr">
         <is>
-          <t>10.93% (0.11 cores)</t>
+          <t>11.46% (0.11 cores)</t>
         </is>
       </c>
       <c r="F56" s="6" t="n">
-        <v>25.44</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="57">
@@ -6184,16 +6184,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>28.43% (0.28 cores)</t>
+          <t>28.83% (0.29 cores)</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>7.92% (0.08 cores)</t>
+          <t>8.31% (0.08 cores)</t>
         </is>
       </c>
       <c r="F57" s="7" t="n">
-        <v>38.61</v>
+        <v>40.53</v>
       </c>
     </row>
     <row r="58">
@@ -6214,16 +6214,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>30.92% (0.31 cores)</t>
+          <t>30.82% (0.31 cores)</t>
         </is>
       </c>
       <c r="E58" s="6" t="inlineStr">
         <is>
-          <t>15.05% (0.15 cores)</t>
+          <t>15.15% (0.15 cores)</t>
         </is>
       </c>
       <c r="F58" s="6" t="n">
-        <v>32.73</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="59">
@@ -6244,16 +6244,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>32.89% (0.33 cores)</t>
+          <t>33.37% (0.33 cores)</t>
         </is>
       </c>
       <c r="E59" s="6" t="inlineStr">
         <is>
-          <t>11.87% (0.12 cores)</t>
+          <t>11.38% (0.11 cores)</t>
         </is>
       </c>
       <c r="F59" s="6" t="n">
-        <v>26.52</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="60">
@@ -6274,16 +6274,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>29.35% (0.29 cores)</t>
+          <t>28.63% (0.29 cores)</t>
         </is>
       </c>
       <c r="E60" s="6" t="inlineStr">
         <is>
-          <t>9.61% (0.10 cores)</t>
+          <t>10.34% (0.10 cores)</t>
         </is>
       </c>
       <c r="F60" s="6" t="n">
-        <v>24.68</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="61">
@@ -6304,16 +6304,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>31.65% (0.32 cores)</t>
+          <t>33.18% (0.33 cores)</t>
         </is>
       </c>
       <c r="E61" s="6" t="inlineStr">
         <is>
-          <t>5.12% (0.05 cores)</t>
+          <t>3.59% (0.04 cores)</t>
         </is>
       </c>
       <c r="F61" s="6" t="n">
-        <v>13.93</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="62">
@@ -6334,16 +6334,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>31.29% (0.31 cores)</t>
+          <t>31.24% (0.31 cores)</t>
         </is>
       </c>
       <c r="E62" s="6" t="inlineStr">
         <is>
-          <t>9.35% (0.09 cores)</t>
+          <t>9.40% (0.09 cores)</t>
         </is>
       </c>
       <c r="F62" s="6" t="n">
-        <v>23.01</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="63">
@@ -6364,16 +6364,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>44.32% (0.44 cores)</t>
+          <t>44.30% (0.44 cores)</t>
         </is>
       </c>
       <c r="E63" s="6" t="inlineStr">
         <is>
-          <t>91.98% (0.92 cores)</t>
+          <t>92.01% (0.92 cores)</t>
         </is>
       </c>
       <c r="F63" s="6" t="n">
-        <v>67.48</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="64">
@@ -6394,16 +6394,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>90.43% (0.90 cores)</t>
+          <t>89.48% (0.89 cores)</t>
         </is>
       </c>
       <c r="E64" s="7" t="inlineStr">
         <is>
-          <t>4.23% (0.04 cores)</t>
+          <t>3.28% (0.03 cores)</t>
         </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>4.91</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="65">
@@ -6424,16 +6424,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>43.88% (0.44 cores)</t>
+          <t>43.41% (0.43 cores)</t>
         </is>
       </c>
       <c r="E65" s="6" t="inlineStr">
         <is>
-          <t>57.36% (0.57 cores)</t>
+          <t>57.82% (0.58 cores)</t>
         </is>
       </c>
       <c r="F65" s="6" t="n">
-        <v>56.66</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="66">
@@ -6454,16 +6454,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>53.18% (0.53 cores)</t>
+          <t>52.15% (0.52 cores)</t>
         </is>
       </c>
       <c r="E66" s="6" t="inlineStr">
         <is>
-          <t>31.91% (0.32 cores)</t>
+          <t>32.95% (0.33 cores)</t>
         </is>
       </c>
       <c r="F66" s="6" t="n">
-        <v>37.5</v>
+        <v>38.72</v>
       </c>
     </row>
     <row r="67">
@@ -6484,16 +6484,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>53.17% (0.53 cores)</t>
+          <t>52.22% (0.52 cores)</t>
         </is>
       </c>
       <c r="E67" s="6" t="inlineStr">
         <is>
-          <t>148.54% (1.49 cores)</t>
+          <t>149.49% (1.49 cores)</t>
         </is>
       </c>
       <c r="F67" s="6" t="n">
-        <v>73.64</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="68">
@@ -6514,16 +6514,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>45.51% (0.46 cores)</t>
+          <t>44.48% (0.44 cores)</t>
         </is>
       </c>
       <c r="E68" s="6" t="inlineStr">
         <is>
-          <t>172.25% (1.72 cores)</t>
+          <t>173.27% (1.73 cores)</t>
         </is>
       </c>
       <c r="F68" s="6" t="n">
-        <v>79.09999999999999</v>
+        <v>79.56999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6544,16 +6544,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>46.55% (0.47 cores)</t>
+          <t>46.40% (0.46 cores)</t>
         </is>
       </c>
       <c r="E69" s="6" t="inlineStr">
         <is>
-          <t>28.74% (0.29 cores)</t>
+          <t>28.88% (0.29 cores)</t>
         </is>
       </c>
       <c r="F69" s="6" t="n">
-        <v>38.17</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="70">
@@ -6574,16 +6574,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>45.74% (0.46 cores)</t>
+          <t>44.38% (0.44 cores)</t>
         </is>
       </c>
       <c r="E70" s="6" t="inlineStr">
         <is>
-          <t>11.10% (0.11 cores)</t>
+          <t>12.46% (0.12 cores)</t>
         </is>
       </c>
       <c r="F70" s="6" t="n">
-        <v>19.53</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="71">
@@ -6604,16 +6604,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>42.86% (0.43 cores)</t>
+          <t>42.03% (0.42 cores)</t>
         </is>
       </c>
       <c r="E71" s="6" t="inlineStr">
         <is>
-          <t>14.35% (0.14 cores)</t>
+          <t>15.18% (0.15 cores)</t>
         </is>
       </c>
       <c r="F71" s="6" t="n">
-        <v>25.09</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="72">
@@ -6634,16 +6634,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>45.27% (0.45 cores)</t>
+          <t>44.64% (0.45 cores)</t>
         </is>
       </c>
       <c r="E72" s="6" t="inlineStr">
         <is>
-          <t>30.91% (0.31 cores)</t>
+          <t>31.55% (0.32 cores)</t>
         </is>
       </c>
       <c r="F72" s="6" t="n">
-        <v>40.58</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="73">
@@ -6664,16 +6664,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>50.13% (0.50 cores)</t>
+          <t>48.89% (0.49 cores)</t>
         </is>
       </c>
       <c r="E73" s="6" t="inlineStr">
         <is>
-          <t>49.94% (0.50 cores)</t>
+          <t>51.18% (0.51 cores)</t>
         </is>
       </c>
       <c r="F73" s="6" t="n">
-        <v>49.9</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="74">
@@ -6694,16 +6694,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>87.05% (0.87 cores)</t>
+          <t>85.97% (0.86 cores)</t>
         </is>
       </c>
       <c r="E74" s="6" t="inlineStr">
         <is>
-          <t>161.59% (1.62 cores)</t>
+          <t>162.67% (1.63 cores)</t>
         </is>
       </c>
       <c r="F74" s="6" t="n">
-        <v>64.98999999999999</v>
+        <v>65.42</v>
       </c>
     </row>
     <row r="75">
@@ -6724,16 +6724,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.40% (0.04 cores)</t>
+          <t>4.35% (0.04 cores)</t>
         </is>
       </c>
       <c r="E75" s="6" t="inlineStr">
         <is>
-          <t>45.28% (0.45 cores)</t>
+          <t>45.32% (0.45 cores)</t>
         </is>
       </c>
       <c r="F75" s="6" t="n">
-        <v>91.15000000000001</v>
+        <v>91.23999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -6754,16 +6754,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.17% (0.04 cores)</t>
+          <t>4.67% (0.05 cores)</t>
         </is>
       </c>
       <c r="E76" s="6" t="inlineStr">
         <is>
-          <t>45.64% (0.46 cores)</t>
+          <t>45.13% (0.45 cores)</t>
         </is>
       </c>
       <c r="F76" s="6" t="n">
-        <v>91.63</v>
+        <v>90.62</v>
       </c>
     </row>
     <row r="77">
@@ -6784,16 +6784,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.58% (0.04 cores)</t>
+          <t>3.01% (0.03 cores)</t>
         </is>
       </c>
       <c r="E77" s="6" t="inlineStr">
         <is>
-          <t>47.63% (0.48 cores)</t>
+          <t>48.20% (0.48 cores)</t>
         </is>
       </c>
       <c r="F77" s="6" t="n">
-        <v>93.01000000000001</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="78">
@@ -6814,16 +6814,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.86% (0.03 cores)</t>
+          <t>3.12% (0.03 cores)</t>
         </is>
       </c>
       <c r="E78" s="6" t="inlineStr">
         <is>
-          <t>49.80% (0.50 cores)</t>
+          <t>49.54% (0.50 cores)</t>
         </is>
       </c>
       <c r="F78" s="6" t="n">
-        <v>94.56999999999999</v>
+        <v>94.08</v>
       </c>
     </row>
     <row r="79">
@@ -6844,16 +6844,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.93% (0.03 cores)</t>
+          <t>2.87% (0.03 cores)</t>
         </is>
       </c>
       <c r="E79" s="6" t="inlineStr">
         <is>
-          <t>49.39% (0.49 cores)</t>
+          <t>49.46% (0.49 cores)</t>
         </is>
       </c>
       <c r="F79" s="6" t="n">
-        <v>94.39</v>
+        <v>94.52</v>
       </c>
     </row>
     <row r="80">
@@ -6874,16 +6874,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.20% (0.03 cores)</t>
+          <t>3.50% (0.04 cores)</t>
         </is>
       </c>
       <c r="E80" s="6" t="inlineStr">
         <is>
-          <t>52.83% (0.53 cores)</t>
+          <t>52.52% (0.53 cores)</t>
         </is>
       </c>
       <c r="F80" s="6" t="n">
-        <v>94.3</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="81">
@@ -6904,16 +6904,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>27.26% (0.27 cores)</t>
+          <t>28.66% (0.29 cores)</t>
         </is>
       </c>
       <c r="E81" s="6" t="inlineStr">
         <is>
-          <t>25.63% (0.26 cores)</t>
+          <t>24.23% (0.24 cores)</t>
         </is>
       </c>
       <c r="F81" s="6" t="n">
-        <v>48.46</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="82">
@@ -6934,16 +6934,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>17.79% (0.18 cores)</t>
+          <t>19.46% (0.19 cores)</t>
         </is>
       </c>
       <c r="E82" s="6" t="inlineStr">
         <is>
-          <t>32.28% (0.32 cores)</t>
+          <t>30.61% (0.31 cores)</t>
         </is>
       </c>
       <c r="F82" s="6" t="n">
-        <v>64.47</v>
+        <v>61.13</v>
       </c>
     </row>
     <row r="83">
@@ -6964,16 +6964,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17.16% (0.17 cores)</t>
+          <t>18.71% (0.19 cores)</t>
         </is>
       </c>
       <c r="E83" s="6" t="inlineStr">
         <is>
-          <t>33.70% (0.34 cores)</t>
+          <t>32.16% (0.32 cores)</t>
         </is>
       </c>
       <c r="F83" s="6" t="n">
-        <v>66.26000000000001</v>
+        <v>63.22</v>
       </c>
     </row>
     <row r="84">
@@ -6994,16 +6994,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>18.08% (0.18 cores)</t>
+          <t>19.90% (0.20 cores)</t>
         </is>
       </c>
       <c r="E84" s="6" t="inlineStr">
         <is>
-          <t>32.83% (0.33 cores)</t>
+          <t>31.00% (0.31 cores)</t>
         </is>
       </c>
       <c r="F84" s="6" t="n">
-        <v>64.48999999999999</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="85">
@@ -7024,16 +7024,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>17.61% (0.18 cores)</t>
+          <t>19.24% (0.19 cores)</t>
         </is>
       </c>
       <c r="E85" s="6" t="inlineStr">
         <is>
-          <t>34.28% (0.34 cores)</t>
+          <t>32.64% (0.33 cores)</t>
         </is>
       </c>
       <c r="F85" s="6" t="n">
-        <v>66.06</v>
+        <v>62.92</v>
       </c>
     </row>
     <row r="86">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>17.86% (0.18 cores)</t>
+          <t>19.50% (0.20 cores)</t>
         </is>
       </c>
       <c r="E86" s="6" t="inlineStr">
         <is>
-          <t>34.92% (0.35 cores)</t>
+          <t>33.28% (0.33 cores)</t>
         </is>
       </c>
       <c r="F86" s="6" t="n">
-        <v>66.16</v>
+        <v>63.05</v>
       </c>
     </row>
     <row r="87">
@@ -7084,16 +7084,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>88.36% (0.88 cores)</t>
+          <t>87.50% (0.87 cores)</t>
         </is>
       </c>
       <c r="E87" s="6" t="inlineStr">
         <is>
-          <t>54.20% (0.54 cores)</t>
+          <t>55.07% (0.55 cores)</t>
         </is>
       </c>
       <c r="F87" s="6" t="n">
-        <v>38.02</v>
+        <v>38.63</v>
       </c>
     </row>
     <row r="88">
@@ -7114,16 +7114,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>92.53% (0.93 cores)</t>
+          <t>91.99% (0.92 cores)</t>
         </is>
       </c>
       <c r="E88" s="6" t="inlineStr">
         <is>
-          <t>43.83% (0.44 cores)</t>
+          <t>44.37% (0.44 cores)</t>
         </is>
       </c>
       <c r="F88" s="6" t="n">
-        <v>32.14</v>
+        <v>32.54</v>
       </c>
     </row>
     <row r="89">
@@ -7144,16 +7144,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>94.09% (0.94 cores)</t>
+          <t>92.97% (0.93 cores)</t>
         </is>
       </c>
       <c r="E89" s="6" t="inlineStr">
         <is>
-          <t>56.93% (0.57 cores)</t>
+          <t>58.04% (0.58 cores)</t>
         </is>
       </c>
       <c r="F89" s="6" t="n">
-        <v>37.7</v>
+        <v>38.44</v>
       </c>
     </row>
     <row r="90">
@@ -7174,16 +7174,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>93.68% (0.94 cores)</t>
+          <t>91.83% (0.92 cores)</t>
         </is>
       </c>
       <c r="E90" s="6" t="inlineStr">
         <is>
-          <t>41.47% (0.41 cores)</t>
+          <t>43.33% (0.43 cores)</t>
         </is>
       </c>
       <c r="F90" s="6" t="n">
-        <v>30.68</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="91">
@@ -7204,16 +7204,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>93.24% (0.93 cores)</t>
+          <t>91.58% (0.92 cores)</t>
         </is>
       </c>
       <c r="E91" s="6" t="inlineStr">
         <is>
-          <t>42.69% (0.43 cores)</t>
+          <t>44.35% (0.44 cores)</t>
         </is>
       </c>
       <c r="F91" s="6" t="n">
-        <v>31.4</v>
+        <v>32.63</v>
       </c>
     </row>
     <row r="92">
@@ -7234,16 +7234,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>93.64% (0.94 cores)</t>
+          <t>91.70% (0.92 cores)</t>
         </is>
       </c>
       <c r="E92" s="6" t="inlineStr">
         <is>
-          <t>43.83% (0.44 cores)</t>
+          <t>45.77% (0.46 cores)</t>
         </is>
       </c>
       <c r="F92" s="6" t="n">
-        <v>31.88</v>
+        <v>33.29</v>
       </c>
     </row>
     <row r="93">
@@ -7264,16 +7264,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>91.17% (0.91 cores)</t>
+          <t>89.80% (0.90 cores)</t>
         </is>
       </c>
       <c r="E93" s="6" t="inlineStr">
         <is>
-          <t>44.35% (0.44 cores)</t>
+          <t>45.72% (0.46 cores)</t>
         </is>
       </c>
       <c r="F93" s="6" t="n">
-        <v>32.72</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="94">
@@ -7294,16 +7294,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>93.27% (0.93 cores)</t>
+          <t>91.09% (0.91 cores)</t>
         </is>
       </c>
       <c r="E94" s="6" t="inlineStr">
         <is>
-          <t>35.51% (0.36 cores)</t>
+          <t>37.68% (0.38 cores)</t>
         </is>
       </c>
       <c r="F94" s="6" t="n">
-        <v>27.57</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="95">
@@ -7324,16 +7324,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>103.68% (1.04 cores)</t>
+          <t>101.98% (1.02 cores)</t>
         </is>
       </c>
       <c r="E95" s="6" t="inlineStr">
         <is>
-          <t>28.20% (0.28 cores)</t>
+          <t>29.91% (0.30 cores)</t>
         </is>
       </c>
       <c r="F95" s="6" t="n">
-        <v>21.38</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="96">
@@ -7354,16 +7354,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>96.73% (0.97 cores)</t>
+          <t>95.66% (0.96 cores)</t>
         </is>
       </c>
       <c r="E96" s="6" t="inlineStr">
         <is>
-          <t>43.81% (0.44 cores)</t>
+          <t>44.88% (0.45 cores)</t>
         </is>
       </c>
       <c r="F96" s="6" t="n">
-        <v>31.17</v>
+        <v>31.94</v>
       </c>
     </row>
     <row r="97">
@@ -7384,16 +7384,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>95.89% (0.96 cores)</t>
+          <t>93.78% (0.94 cores)</t>
         </is>
       </c>
       <c r="E97" s="6" t="inlineStr">
         <is>
-          <t>38.98% (0.39 cores)</t>
+          <t>41.09% (0.41 cores)</t>
         </is>
       </c>
       <c r="F97" s="6" t="n">
-        <v>28.9</v>
+        <v>30.46</v>
       </c>
     </row>
     <row r="98">
@@ -7414,16 +7414,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>98.38% (0.98 cores)</t>
+          <t>97.00% (0.97 cores)</t>
         </is>
       </c>
       <c r="E98" s="6" t="inlineStr">
         <is>
-          <t>41.37% (0.41 cores)</t>
+          <t>42.75% (0.43 cores)</t>
         </is>
       </c>
       <c r="F98" s="6" t="n">
-        <v>29.6</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="99">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="F111" s="6" t="n">
-        <v>81.31999999999999</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="112">
@@ -7678,16 +7678,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6.41% (0.06 cores)</t>
+          <t>6.23% (0.06 cores)</t>
         </is>
       </c>
       <c r="E112" s="6" t="inlineStr">
         <is>
-          <t>19.45% (0.19 cores)</t>
+          <t>19.62% (0.20 cores)</t>
         </is>
       </c>
       <c r="F112" s="6" t="n">
-        <v>75.20999999999999</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7708,16 +7708,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.50% (0.06 cores)</t>
+          <t>6.22% (0.06 cores)</t>
         </is>
       </c>
       <c r="E113" s="6" t="inlineStr">
         <is>
-          <t>11.42% (0.11 cores)</t>
+          <t>11.69% (0.12 cores)</t>
         </is>
       </c>
       <c r="F113" s="6" t="n">
-        <v>63.75</v>
+        <v>65.26000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -7738,16 +7738,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>9.60% (0.10 cores)</t>
+          <t>8.99% (0.09 cores)</t>
         </is>
       </c>
       <c r="E114" s="7" t="inlineStr">
         <is>
-          <t>3.51% (0.04 cores)</t>
+          <t>2.90% (0.03 cores)</t>
         </is>
       </c>
       <c r="F114" s="7" t="n">
-        <v>57.69</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="115">
@@ -7768,16 +7768,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>8.85% (0.09 cores)</t>
+          <t>8.26% (0.08 cores)</t>
         </is>
       </c>
       <c r="E115" s="6" t="inlineStr">
         <is>
-          <t>8.79% (0.09 cores)</t>
+          <t>9.38% (0.09 cores)</t>
         </is>
       </c>
       <c r="F115" s="6" t="n">
-        <v>49.85</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="116">
@@ -7798,16 +7798,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>9.28% (0.09 cores)</t>
+          <t>8.56% (0.09 cores)</t>
         </is>
       </c>
       <c r="E116" s="6" t="inlineStr">
         <is>
-          <t>6.22% (0.06 cores)</t>
+          <t>6.94% (0.07 cores)</t>
         </is>
       </c>
       <c r="F116" s="6" t="n">
-        <v>40.13</v>
+        <v>44.79</v>
       </c>
     </row>
     <row r="117">
@@ -7828,16 +7828,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>7.47% (0.07 cores)</t>
+          <t>7.00% (0.07 cores)</t>
         </is>
       </c>
       <c r="E117" s="6" t="inlineStr">
         <is>
-          <t>3.23% (0.03 cores)</t>
+          <t>3.71% (0.04 cores)</t>
         </is>
       </c>
       <c r="F117" s="6" t="n">
-        <v>30.2</v>
+        <v>34.64</v>
       </c>
     </row>
     <row r="118">
@@ -7858,16 +7858,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>8.15% (0.08 cores)</t>
+          <t>7.56% (0.08 cores)</t>
         </is>
       </c>
       <c r="E118" s="6" t="inlineStr">
         <is>
-          <t>13.34% (0.13 cores)</t>
+          <t>13.93% (0.14 cores)</t>
         </is>
       </c>
       <c r="F118" s="6" t="n">
-        <v>62.08</v>
+        <v>64.81</v>
       </c>
     </row>
     <row r="119">
@@ -7888,16 +7888,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>8.79% (0.09 cores)</t>
+          <t>8.26% (0.08 cores)</t>
         </is>
       </c>
       <c r="E119" s="6" t="inlineStr">
         <is>
-          <t>8.07% (0.08 cores)</t>
+          <t>8.60% (0.09 cores)</t>
         </is>
       </c>
       <c r="F119" s="6" t="n">
-        <v>47.87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120">
@@ -7918,16 +7918,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.68% (0.10 cores)</t>
+          <t>8.84% (0.09 cores)</t>
         </is>
       </c>
       <c r="E120" s="6" t="inlineStr">
         <is>
-          <t>15.46% (0.15 cores)</t>
+          <t>16.30% (0.16 cores)</t>
         </is>
       </c>
       <c r="F120" s="6" t="n">
-        <v>61.5</v>
+        <v>64.84999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -7948,16 +7948,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>6.66% (0.07 cores)</t>
+          <t>6.20% (0.06 cores)</t>
         </is>
       </c>
       <c r="E121" s="6" t="inlineStr">
         <is>
-          <t>5.14% (0.05 cores)</t>
+          <t>5.60% (0.06 cores)</t>
         </is>
       </c>
       <c r="F121" s="6" t="n">
-        <v>43.56</v>
+        <v>47.47</v>
       </c>
     </row>
     <row r="122">
@@ -7978,16 +7978,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>7.09% (0.07 cores)</t>
+          <t>6.53% (0.07 cores)</t>
         </is>
       </c>
       <c r="E122" s="6" t="inlineStr">
         <is>
-          <t>10.60% (0.11 cores)</t>
+          <t>11.16% (0.11 cores)</t>
         </is>
       </c>
       <c r="F122" s="6" t="n">
-        <v>59.93</v>
+        <v>63.09</v>
       </c>
     </row>
   </sheetData>
@@ -8001,7 +8001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8039,7 +8039,7 @@
         <v>137006</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2">
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.23</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="6">
@@ -8123,7 +8123,7 @@
         <v>0.04</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>13.12</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="7">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.75</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -8165,13 +8165,13 @@
         <v>0.64</v>
       </c>
       <c r="D8" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>0.37</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>58.31</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="9">
@@ -8195,7 +8195,7 @@
         <v>1.22</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>38.98</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="10">
@@ -8219,7 +8219,7 @@
         <v>0.09</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>41.45</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="11">
@@ -8240,10 +8240,10 @@
         <v>8.74</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>13.13</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="12">
@@ -8261,13 +8261,13 @@
         <v>8.44</v>
       </c>
       <c r="D12" t="n">
-        <v>9.66</v>
+        <v>9.67</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>14.48</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="13">
@@ -8462,7 +8462,7 @@
         <v>0.8</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>40.24</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="28">
@@ -8486,7 +8486,7 @@
         <v>0.14</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>31.38</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="29">
@@ -8510,7 +8510,7 @@
         <v>0.2</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>44.1</v>
+        <v>43.69</v>
       </c>
     </row>
     <row r="30">
@@ -8534,7 +8534,7 @@
         <v>0.22</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>87.77</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -8558,7 +8558,7 @@
         <v>0.23</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>55.73</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="32">
@@ -8576,13 +8576,13 @@
         <v>0.85</v>
       </c>
       <c r="D32" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>0.11</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>12.84</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="33">
@@ -8606,7 +8606,7 @@
         <v>0.02</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34">
@@ -8654,7 +8654,7 @@
         <v>0.23</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>58.09</v>
+        <v>58.01</v>
       </c>
     </row>
     <row r="37">
@@ -8678,7 +8678,7 @@
         <v>0.29</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>53.72</v>
+        <v>53.83</v>
       </c>
     </row>
     <row r="38">
@@ -8702,7 +8702,7 @@
         <v>0.18</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>30.73</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="39">
@@ -8726,7 +8726,7 @@
         <v>0.35</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>71.63</v>
+        <v>71.72</v>
       </c>
     </row>
     <row r="40">
@@ -8762,7 +8762,7 @@
         <v>0.23</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>40.48</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="42">
@@ -8780,13 +8780,13 @@
         <v>14.52</v>
       </c>
       <c r="D42" t="n">
-        <v>6.61</v>
+        <v>6.58</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>7.9</v>
+        <v>7.94</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>54.46</v>
+        <v>54.69</v>
       </c>
     </row>
     <row r="43">
@@ -8864,13 +8864,13 @@
         <v>1.78</v>
       </c>
       <c r="D48" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>0.57</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>32.18</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="49">
@@ -8948,13 +8948,13 @@
         <v>122.79</v>
       </c>
       <c r="D54" t="n">
-        <v>111.03</v>
+        <v>110.88</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>11.76</v>
+        <v>11.91</v>
       </c>
       <c r="F54" s="6" t="n">
-        <v>9.58</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -8978,7 +8978,7 @@
         <v>1.87</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>73.36</v>
+        <v>73.34999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -9002,7 +9002,7 @@
         <v>0.17</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>27.21</v>
+        <v>27.33</v>
       </c>
     </row>
     <row r="57">
@@ -9026,7 +9026,7 @@
         <v>1.33</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>61.66</v>
+        <v>61.67</v>
       </c>
     </row>
     <row r="58">
@@ -9116,13 +9116,13 @@
         <v>1.03</v>
       </c>
       <c r="D63" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>0.63</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>61.28</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="64">
@@ -9275,7 +9275,7 @@
         <v>0.23</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>70.88</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -9293,13 +9293,13 @@
         <v>5.25</v>
       </c>
       <c r="D74" t="n">
-        <v>89.69</v>
+        <v>76.91</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>84.44</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>1607.31</v>
+        <v>1363.89</v>
       </c>
     </row>
     <row r="75">
@@ -9353,13 +9353,13 @@
         <v>31.65</v>
       </c>
       <c r="D78" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="E78" s="6" t="n">
-        <v>28.21</v>
+        <v>28.24</v>
       </c>
       <c r="F78" s="6" t="n">
-        <v>89.15000000000001</v>
+        <v>89.23</v>
       </c>
     </row>
     <row r="79">
@@ -9380,10 +9380,10 @@
         <v>78.88</v>
       </c>
       <c r="E79" s="7" t="n">
-        <v>32.64</v>
+        <v>32.65</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>70.59999999999999</v>
+        <v>70.61</v>
       </c>
     </row>
     <row r="80">
@@ -9407,7 +9407,7 @@
         <v>1.2</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>58.21</v>
+        <v>58.19</v>
       </c>
     </row>
     <row r="81">
@@ -9500,13 +9500,13 @@
         <v>340.37</v>
       </c>
       <c r="D86" t="n">
-        <v>54.19</v>
+        <v>54.06</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>286.19</v>
+        <v>286.32</v>
       </c>
       <c r="F86" s="6" t="n">
-        <v>84.08</v>
+        <v>84.12</v>
       </c>
     </row>
     <row r="87">
@@ -9530,7 +9530,7 @@
         <v>3.23</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>29.27</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="88">
@@ -9548,13 +9548,13 @@
         <v>84.23999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>43.41</v>
+        <v>43.35</v>
       </c>
       <c r="E88" s="6" t="n">
-        <v>40.82</v>
+        <v>40.89</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>48.46</v>
+        <v>48.54</v>
       </c>
     </row>
     <row r="89">
@@ -9572,13 +9572,13 @@
         <v>27.37</v>
       </c>
       <c r="D89" t="n">
-        <v>19.27</v>
+        <v>19.29</v>
       </c>
       <c r="E89" s="6" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>29.61</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="90">
@@ -9656,13 +9656,13 @@
         <v>25.31</v>
       </c>
       <c r="D95" t="n">
-        <v>21.94</v>
+        <v>21.91</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="F95" s="6" t="n">
-        <v>13.31</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="96">
@@ -9716,13 +9716,13 @@
         <v>199.57</v>
       </c>
       <c r="D99" t="n">
-        <v>508.4</v>
+        <v>507.07</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>308.84</v>
+        <v>307.5</v>
       </c>
       <c r="F99" s="7" t="n">
-        <v>154.75</v>
+        <v>154.09</v>
       </c>
     </row>
     <row r="100">
@@ -9746,7 +9746,7 @@
         <v>0.02</v>
       </c>
       <c r="F100" s="6" t="n">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="101">
@@ -9794,7 +9794,7 @@
         <v>0.22</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>67.43000000000001</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -9818,7 +9818,7 @@
         <v>0.19</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>44.41</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="105">
@@ -9848,13 +9848,13 @@
         <v>8.66</v>
       </c>
       <c r="D106" t="n">
-        <v>15.02</v>
+        <v>15.03</v>
       </c>
       <c r="E106" s="7" t="n">
         <v>6.37</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>73.52</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="107">
@@ -9878,7 +9878,7 @@
         <v>0.49</v>
       </c>
       <c r="F107" s="7" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="108">
@@ -9968,13 +9968,13 @@
         <v>21.43</v>
       </c>
       <c r="D114" t="n">
-        <v>15.85</v>
+        <v>15.84</v>
       </c>
       <c r="E114" s="6" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="F114" s="6" t="n">
-        <v>26.03</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="115">
@@ -10034,7 +10034,7 @@
         <v>0.16</v>
       </c>
       <c r="F117" s="7" t="n">
-        <v>13.23</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="118">
@@ -10088,13 +10088,13 @@
         <v>13.15</v>
       </c>
       <c r="D121" t="n">
-        <v>7.62</v>
+        <v>7.63</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>42.07</v>
+        <v>41.95</v>
       </c>
     </row>
     <row r="122">
@@ -10136,13 +10136,13 @@
         <v>149.81</v>
       </c>
       <c r="D124" t="n">
-        <v>198.52</v>
+        <v>197.53</v>
       </c>
       <c r="E124" s="7" t="n">
-        <v>48.71</v>
+        <v>47.72</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>32.51</v>
+        <v>31.85</v>
       </c>
     </row>
     <row r="125">
@@ -10166,7 +10166,7 @@
         <v>0.2</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>44.56</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="126">
@@ -10190,7 +10190,7 @@
         <v>0.18</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>42.13</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="127">
@@ -10232,13 +10232,13 @@
         <v>222.69</v>
       </c>
       <c r="D129" t="n">
-        <v>172.8</v>
+        <v>172.63</v>
       </c>
       <c r="E129" s="6" t="n">
-        <v>49.88</v>
+        <v>50.06</v>
       </c>
       <c r="F129" s="6" t="n">
-        <v>22.4</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="130">
@@ -10262,7 +10262,7 @@
         <v>0.23</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>102.64</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="131">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="6" t="n">
-        <v>14.76</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="136">
@@ -10358,7 +10358,7 @@
         <v>0.02</v>
       </c>
       <c r="F136" s="6" t="n">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="137">
@@ -10382,7 +10382,7 @@
         <v>0.02</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>10.1</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="138">
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="F138" s="6" t="n">
-        <v>3.6</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="139">
@@ -10424,13 +10424,13 @@
         <v>0.22</v>
       </c>
       <c r="D139" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E139" s="7" t="n">
         <v>0.76</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>353.38</v>
+        <v>351.72</v>
       </c>
     </row>
     <row r="140">
@@ -10448,13 +10448,13 @@
         <v>71.12</v>
       </c>
       <c r="D140" t="n">
-        <v>50.9</v>
+        <v>51.02</v>
       </c>
       <c r="E140" s="6" t="n">
-        <v>20.22</v>
+        <v>20.1</v>
       </c>
       <c r="F140" s="6" t="n">
-        <v>28.43</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="141">
@@ -10475,10 +10475,10 @@
         <v>4.38</v>
       </c>
       <c r="E141" s="6" t="n">
-        <v>18.18</v>
+        <v>18.19</v>
       </c>
       <c r="F141" s="6" t="n">
-        <v>80.56999999999999</v>
+        <v>80.61</v>
       </c>
     </row>
     <row r="142">
@@ -10496,13 +10496,13 @@
         <v>15.7</v>
       </c>
       <c r="D142" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="E142" s="6" t="n">
-        <v>14.23</v>
+        <v>14.24</v>
       </c>
       <c r="F142" s="6" t="n">
-        <v>90.66</v>
+        <v>90.68000000000001</v>
       </c>
     </row>
     <row r="143">
@@ -10526,7 +10526,7 @@
         <v>0.09</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>11.4</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="144">
@@ -10544,13 +10544,13 @@
         <v>467.18</v>
       </c>
       <c r="D144" t="n">
-        <v>480.32</v>
+        <v>479.7</v>
       </c>
       <c r="E144" s="7" t="n">
-        <v>13.14</v>
+        <v>12.52</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="145">
@@ -10592,13 +10592,13 @@
         <v>51.63</v>
       </c>
       <c r="D147" t="n">
-        <v>98.77</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="E147" s="7" t="n">
-        <v>47.14</v>
+        <v>47.01</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>91.3</v>
+        <v>91.05</v>
       </c>
     </row>
     <row r="148">
@@ -10664,13 +10664,13 @@
         <v>8.4</v>
       </c>
       <c r="D151" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>2.74</v>
       </c>
       <c r="F151" s="6" t="n">
-        <v>32.58</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="152">
@@ -10694,7 +10694,7 @@
         <v>4.59</v>
       </c>
       <c r="F152" s="6" t="n">
-        <v>49.36</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="153">
@@ -10712,13 +10712,13 @@
         <v>9.26</v>
       </c>
       <c r="D153" t="n">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
       <c r="E153" s="6" t="n">
-        <v>4.96</v>
+        <v>4.98</v>
       </c>
       <c r="F153" s="6" t="n">
-        <v>53.58</v>
+        <v>53.81</v>
       </c>
     </row>
     <row r="154">
@@ -10742,7 +10742,7 @@
         <v>4.62</v>
       </c>
       <c r="F154" s="6" t="n">
-        <v>50.79</v>
+        <v>50.82</v>
       </c>
     </row>
     <row r="155">
@@ -10796,7 +10796,7 @@
         <v>0.14</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>25.71</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="158">
@@ -10817,10 +10817,10 @@
         <v>0.99</v>
       </c>
       <c r="E158" s="7" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>77.76000000000001</v>
+        <v>78.34999999999999</v>
       </c>
     </row>
     <row r="159">
@@ -10886,13 +10886,13 @@
         <v>80.65000000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>173.15</v>
+        <v>173.23</v>
       </c>
       <c r="E163" s="7" t="n">
-        <v>92.48999999999999</v>
+        <v>92.58</v>
       </c>
       <c r="F163" s="7" t="n">
-        <v>114.68</v>
+        <v>114.79</v>
       </c>
     </row>
     <row r="164">
@@ -10910,13 +10910,13 @@
         <v>84.06</v>
       </c>
       <c r="D164" t="n">
-        <v>173.93</v>
+        <v>174.01</v>
       </c>
       <c r="E164" s="7" t="n">
-        <v>89.88</v>
+        <v>89.95</v>
       </c>
       <c r="F164" s="7" t="n">
-        <v>106.92</v>
+        <v>107.01</v>
       </c>
     </row>
     <row r="165">
@@ -10940,7 +10940,7 @@
         <v>0.01</v>
       </c>
       <c r="F165" s="6" t="n">
-        <v>10.25</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="166">
@@ -10976,7 +10976,7 @@
         <v>0.2</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>32.34</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="168">
@@ -11000,7 +11000,7 @@
         <v>0.23</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>43.08</v>
+        <v>43.14</v>
       </c>
     </row>
     <row r="169">
@@ -11018,13 +11018,13 @@
         <v>5.53</v>
       </c>
       <c r="D169" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E169" s="7" t="n">
         <v>0.63</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>11.43</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="170">
@@ -11042,13 +11042,13 @@
         <v>501.3</v>
       </c>
       <c r="D170" t="n">
-        <v>843.71</v>
+        <v>840.85</v>
       </c>
       <c r="E170" s="7" t="n">
-        <v>342.42</v>
+        <v>339.56</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>68.31</v>
+        <v>67.73999999999999</v>
       </c>
     </row>
     <row r="171">
@@ -11120,7 +11120,7 @@
         <v>0.09</v>
       </c>
       <c r="F175" s="6" t="n">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="176">
@@ -11231,13 +11231,13 @@
         <v>64.09</v>
       </c>
       <c r="D183" t="n">
-        <v>151.39</v>
+        <v>149.92</v>
       </c>
       <c r="E183" s="7" t="n">
-        <v>87.3</v>
+        <v>85.83</v>
       </c>
       <c r="F183" s="7" t="n">
-        <v>136.22</v>
+        <v>133.93</v>
       </c>
     </row>
     <row r="184">
@@ -11357,7 +11357,7 @@
         <v>0.22</v>
       </c>
       <c r="F190" s="7" t="n">
-        <v>69.43000000000001</v>
+        <v>69.48</v>
       </c>
     </row>
     <row r="191">
@@ -11381,7 +11381,7 @@
         <v>0.01</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="192">
@@ -11495,13 +11495,13 @@
         <v>3.32</v>
       </c>
       <c r="D200" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="E200" s="7" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>10.56</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="201">
@@ -11574,14 +11574,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>memory used by container agitated_fermat</t>
+          <t>memory used by container agitated_kalam</t>
         </is>
       </c>
       <c r="D205" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E205" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F205" s="7" t="n">
         <v>0</v>
@@ -11590,14 +11590,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>memory used by container agitated_kalam</t>
+          <t>memory used by container angry_antonelli</t>
         </is>
       </c>
       <c r="D206" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E206" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F206" s="7" t="n">
         <v>0</v>
@@ -11606,14 +11606,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>memory used by container angry_antonelli</t>
+          <t>memory used by container ask-uptycs-server</t>
         </is>
       </c>
       <c r="D207" s="5" t="n">
-        <v>0.1</v>
+        <v>6.12</v>
       </c>
       <c r="E207" s="7" t="n">
-        <v>0.1</v>
+        <v>6.12</v>
       </c>
       <c r="F207" s="7" t="n">
         <v>0</v>
@@ -11622,14 +11622,14 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>memory used by container ask-uptycs-server</t>
+          <t>memory used by container asset-catalog-db</t>
         </is>
       </c>
       <c r="D208" s="5" t="n">
-        <v>6.19</v>
+        <v>0.08</v>
       </c>
       <c r="E208" s="7" t="n">
-        <v>6.19</v>
+        <v>0.08</v>
       </c>
       <c r="F208" s="7" t="n">
         <v>0</v>
@@ -11638,14 +11638,14 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>memory used by container asset-catalog-db</t>
+          <t>memory used by container awesome_rhodes</t>
         </is>
       </c>
       <c r="D209" s="5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E209" s="7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F209" s="7" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>memory used by container awesome_rhodes</t>
+          <t>memory used by container bold_davinci</t>
         </is>
       </c>
       <c r="D210" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E210" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F210" s="7" t="n">
         <v>0</v>
@@ -11670,7 +11670,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>memory used by container bold_davinci</t>
+          <t>memory used by container brave_kapitsa</t>
         </is>
       </c>
       <c r="D211" s="5" t="n">
@@ -11686,7 +11686,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>memory used by container brave_kapitsa</t>
+          <t>memory used by container busy_sammet</t>
         </is>
       </c>
       <c r="D212" s="5" t="n">
@@ -11702,14 +11702,14 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>memory used by container busy_sammet</t>
+          <t>memory used by container charming_blackwell</t>
         </is>
       </c>
       <c r="D213" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E213" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F213" s="7" t="n">
         <v>0</v>
@@ -11718,14 +11718,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>memory used by container charming_blackwell</t>
+          <t>memory used by container checksum-validator</t>
         </is>
       </c>
       <c r="D214" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E214" s="7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F214" s="7" t="n">
         <v>0</v>
@@ -11734,14 +11734,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>memory used by container checksum-validator</t>
+          <t>memory used by container condescending_keller</t>
         </is>
       </c>
       <c r="D215" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E215" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F215" s="7" t="n">
         <v>0</v>
@@ -11750,14 +11750,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>memory used by container condescending_keller</t>
+          <t>memory used by container confident_feynman</t>
         </is>
       </c>
       <c r="D216" s="5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E216" s="7" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F216" s="7" t="n">
         <v>0</v>
@@ -11766,14 +11766,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>memory used by container confident_feynman</t>
+          <t>memory used by container dazzling_margulis</t>
         </is>
       </c>
       <c r="D217" s="5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E217" s="7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F217" s="7" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>memory used by container dazzling_margulis</t>
+          <t>memory used by container dreamy_bouman</t>
         </is>
       </c>
       <c r="D218" s="5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E218" s="7" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F218" s="7" t="n">
         <v>0</v>
@@ -11798,14 +11798,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>memory used by container dreamy_bouman</t>
+          <t>memory used by container dreamy_thompson</t>
         </is>
       </c>
       <c r="D219" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E219" s="7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F219" s="7" t="n">
         <v>0</v>
@@ -11814,14 +11814,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>memory used by container dreamy_thompson</t>
+          <t>memory used by container eloquent_cartwright</t>
         </is>
       </c>
       <c r="D220" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E220" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F220" s="7" t="n">
         <v>0</v>
@@ -11830,14 +11830,14 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>memory used by container elegant_germain</t>
+          <t>memory used by container festive_cray</t>
         </is>
       </c>
       <c r="D221" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E221" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F221" s="7" t="n">
         <v>0</v>
@@ -11846,7 +11846,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>memory used by container eloquent_bell</t>
+          <t>memory used by container focused_torvalds</t>
         </is>
       </c>
       <c r="D222" s="5" t="n">
@@ -11862,14 +11862,14 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>memory used by container eloquent_cartwright</t>
+          <t>memory used by container friendly_ishizaka</t>
         </is>
       </c>
       <c r="D223" s="5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E223" s="7" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F223" s="7" t="n">
         <v>0</v>
@@ -11878,14 +11878,14 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>memory used by container festive_cray</t>
+          <t>memory used by container friendly_pascal</t>
         </is>
       </c>
       <c r="D224" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E224" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F224" s="7" t="n">
         <v>0</v>
@@ -11894,7 +11894,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>memory used by container focused_torvalds</t>
+          <t>memory used by container gifted_kalam</t>
         </is>
       </c>
       <c r="D225" s="5" t="n">
@@ -11910,7 +11910,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>memory used by container friendly_ishizaka</t>
+          <t>memory used by container great_kare</t>
         </is>
       </c>
       <c r="D226" s="5" t="n">
@@ -11926,7 +11926,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>memory used by container friendly_pascal</t>
+          <t>memory used by container great_leakey</t>
         </is>
       </c>
       <c r="D227" s="5" t="n">
@@ -11942,7 +11942,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>memory used by container gifted_kalam</t>
+          <t>memory used by container happy_driscoll</t>
         </is>
       </c>
       <c r="D228" s="5" t="n">
@@ -11958,14 +11958,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>memory used by container great_kare</t>
+          <t>memory used by container happy_kirch</t>
         </is>
       </c>
       <c r="D229" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E229" s="7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F229" s="7" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>memory used by container great_leakey</t>
+          <t>memory used by container happy_williams</t>
         </is>
       </c>
       <c r="D230" s="5" t="n">
@@ -11990,14 +11990,14 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>memory used by container happy_driscoll</t>
+          <t>memory used by container hardcore_booth</t>
         </is>
       </c>
       <c r="D231" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E231" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F231" s="7" t="n">
         <v>0</v>
@@ -12006,7 +12006,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>memory used by container happy_kirch</t>
+          <t>memory used by container heuristic_boyd</t>
         </is>
       </c>
       <c r="D232" s="5" t="n">
@@ -12022,14 +12022,14 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>memory used by container happy_williams</t>
+          <t>memory used by container infallible_diffie</t>
         </is>
       </c>
       <c r="D233" s="5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E233" s="7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F233" s="7" t="n">
         <v>0</v>
@@ -12038,14 +12038,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>memory used by container hardcore_booth</t>
+          <t>memory used by container intelligent_bohr</t>
         </is>
       </c>
       <c r="D234" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E234" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F234" s="7" t="n">
         <v>0</v>
@@ -12054,14 +12054,14 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>memory used by container heuristic_boyd</t>
+          <t>memory used by container jolly_chandrasekhar</t>
         </is>
       </c>
       <c r="D235" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E235" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F235" s="7" t="n">
         <v>0</v>
@@ -12070,14 +12070,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>memory used by container infallible_diffie</t>
+          <t>memory used by container laughing_margulis</t>
         </is>
       </c>
       <c r="D236" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E236" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F236" s="7" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>memory used by container inspiring_jepsen</t>
+          <t>memory used by container loving_goldwasser</t>
         </is>
       </c>
       <c r="D237" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E237" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F237" s="7" t="n">
         <v>0</v>
@@ -12102,14 +12102,14 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>memory used by container intelligent_bohr</t>
+          <t>memory used by container loving_taussig</t>
         </is>
       </c>
       <c r="D238" s="5" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E238" s="7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F238" s="7" t="n">
         <v>0</v>
@@ -12118,14 +12118,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>memory used by container jolly_chandrasekhar</t>
+          <t>memory used by container lucid_mestorf</t>
         </is>
       </c>
       <c r="D239" s="5" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E239" s="7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F239" s="7" t="n">
         <v>0</v>
@@ -12134,14 +12134,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>memory used by container jolly_merkle</t>
+          <t>memory used by container musing_morse</t>
         </is>
       </c>
       <c r="D240" s="5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E240" s="7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F240" s="7" t="n">
         <v>0</v>
@@ -12150,14 +12150,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>memory used by container laughing_margulis</t>
+          <t>memory used by container musing_tereshkova</t>
         </is>
       </c>
       <c r="D241" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E241" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F241" s="7" t="n">
         <v>0</v>
@@ -12166,14 +12166,14 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>memory used by container loving_goldwasser</t>
+          <t>memory used by container nervous_kowalevski</t>
         </is>
       </c>
       <c r="D242" s="5" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E242" s="7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F242" s="7" t="n">
         <v>0</v>
@@ -12182,14 +12182,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>memory used by container loving_taussig</t>
+          <t>memory used by container optimistic_sanderson</t>
         </is>
       </c>
       <c r="D243" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E243" s="7" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F243" s="7" t="n">
         <v>0</v>
@@ -12198,14 +12198,14 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>memory used by container lucid_mestorf</t>
+          <t>memory used by container pgbouncer-threatdb</t>
         </is>
       </c>
       <c r="D244" s="5" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E244" s="7" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="F244" s="7" t="n">
         <v>0</v>
@@ -12214,14 +12214,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>memory used by container magical_hawking</t>
+          <t>memory used by container postgres-prestogatewaydb</t>
         </is>
       </c>
       <c r="D245" s="5" t="n">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
       <c r="E245" s="7" t="n">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
       <c r="F245" s="7" t="n">
         <v>0</v>
@@ -12230,14 +12230,14 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>memory used by container modest_jones</t>
+          <t>memory used by container postgres-threatdb</t>
         </is>
       </c>
       <c r="D246" s="5" t="n">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="E246" s="7" t="n">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="F246" s="7" t="n">
         <v>0</v>
@@ -12246,14 +12246,14 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>memory used by container musing_morse</t>
+          <t>memory used by container prestogateway</t>
         </is>
       </c>
       <c r="D247" s="5" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="E247" s="7" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="F247" s="7" t="n">
         <v>0</v>
@@ -12262,7 +12262,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>memory used by container musing_tereshkova</t>
+          <t>memory used by container quirky_pare</t>
         </is>
       </c>
       <c r="D248" s="5" t="n">
@@ -12278,7 +12278,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>memory used by container nervous_kowalevski</t>
+          <t>memory used by container quirky_ramanujan</t>
         </is>
       </c>
       <c r="D249" s="5" t="n">
@@ -12294,7 +12294,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>memory used by container nice_carver</t>
+          <t>memory used by container quizzical_hermann</t>
         </is>
       </c>
       <c r="D250" s="5" t="n">
@@ -12310,14 +12310,14 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>memory used by container optimistic_sanderson</t>
+          <t>memory used by container relaxed_bassi</t>
         </is>
       </c>
       <c r="D251" s="5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E251" s="7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F251" s="7" t="n">
         <v>0</v>
@@ -12326,14 +12326,14 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>memory used by container pgbouncer-threatdb</t>
+          <t>memory used by container relaxed_mestorf</t>
         </is>
       </c>
       <c r="D252" s="5" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E252" s="7" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F252" s="7" t="n">
         <v>0</v>
@@ -12342,14 +12342,14 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>memory used by container postgres-prestogatewaydb</t>
+          <t>memory used by container sad_kepler</t>
         </is>
       </c>
       <c r="D253" s="5" t="n">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="E253" s="7" t="n">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="F253" s="7" t="n">
         <v>0</v>
@@ -12358,14 +12358,14 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>memory used by container postgres-threatdb</t>
+          <t>memory used by container silly_jennings</t>
         </is>
       </c>
       <c r="D254" s="5" t="n">
-        <v>0.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E254" s="7" t="n">
-        <v>0.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F254" s="7" t="n">
         <v>0</v>
@@ -12374,14 +12374,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>memory used by container prestogateway</t>
+          <t>memory used by container stoic_robinson</t>
         </is>
       </c>
       <c r="D255" s="5" t="n">
-        <v>4.31</v>
+        <v>0.08</v>
       </c>
       <c r="E255" s="7" t="n">
-        <v>4.31</v>
+        <v>0.08</v>
       </c>
       <c r="F255" s="7" t="n">
         <v>0</v>
@@ -12390,14 +12390,14 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>memory used by container quirky_pare</t>
+          <t>memory used by container suspicious_buck</t>
         </is>
       </c>
       <c r="D256" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E256" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F256" s="7" t="n">
         <v>0</v>
@@ -12406,14 +12406,14 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>memory used by container quirky_ramanujan</t>
+          <t>memory used by container suspicious_clarke</t>
         </is>
       </c>
       <c r="D257" s="5" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E257" s="7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F257" s="7" t="n">
         <v>0</v>
@@ -12422,14 +12422,14 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>memory used by container quizzical_hermann</t>
+          <t>memory used by container sweet_wing</t>
         </is>
       </c>
       <c r="D258" s="5" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E258" s="7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F258" s="7" t="n">
         <v>0</v>
@@ -12438,14 +12438,14 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>memory used by container relaxed_bassi</t>
+          <t>memory used by container upbeat_kowalevski</t>
         </is>
       </c>
       <c r="D259" s="5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E259" s="7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F259" s="7" t="n">
         <v>0</v>
@@ -12454,14 +12454,14 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>memory used by container relaxed_mestorf</t>
+          <t>memory used by container vibrant_hodgkin</t>
         </is>
       </c>
       <c r="D260" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E260" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F260" s="7" t="n">
         <v>0</v>
@@ -12470,14 +12470,14 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>memory used by container sad_kepler</t>
+          <t>memory used by container wizardly_cori</t>
         </is>
       </c>
       <c r="D261" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E261" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F261" s="7" t="n">
         <v>0</v>
@@ -12486,14 +12486,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>memory used by container silly_jennings</t>
+          <t>memory used by container wonderful_panini</t>
         </is>
       </c>
       <c r="D262" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E262" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F262" s="7" t="n">
         <v>0</v>
@@ -12502,7 +12502,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>memory used by container stoic_robinson</t>
+          <t>memory used by container xenodochial_sinoussi</t>
         </is>
       </c>
       <c r="D263" s="5" t="n">
@@ -12518,14 +12518,14 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>memory used by container suspicious_buck</t>
+          <t>memory used by container xenodochial_yalow</t>
         </is>
       </c>
       <c r="D264" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E264" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F264" s="7" t="n">
         <v>0</v>
@@ -12534,14 +12534,14 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>memory used by container suspicious_clarke</t>
+          <t>memory used by container youthful_cohen</t>
         </is>
       </c>
       <c r="D265" s="5" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E265" s="7" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F265" s="7" t="n">
         <v>0</v>
@@ -12550,14 +12550,14 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>memory used by container sweet_wing</t>
+          <t>memory used by container youthful_swanson</t>
         </is>
       </c>
       <c r="D266" s="5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E266" s="7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F266" s="7" t="n">
         <v>0</v>
@@ -12566,14 +12566,14 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>memory used by container upbeat_kowalevski</t>
+          <t>memory used by container youthful_wing</t>
         </is>
       </c>
       <c r="D267" s="5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E267" s="7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F267" s="7" t="n">
         <v>0</v>
@@ -12582,14 +12582,14 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>memory used by container vibrant_hodgkin</t>
+          <t>memory used by container zealous_turing</t>
         </is>
       </c>
       <c r="D268" s="5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E268" s="7" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F268" s="7" t="n">
         <v>0</v>
@@ -12598,160 +12598,16 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>memory used by container vigilant_jackson</t>
+          <t>memory used by container zen_babbage</t>
         </is>
       </c>
       <c r="D269" s="5" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E269" s="7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>memory used by container wizardly_cori</t>
-        </is>
-      </c>
-      <c r="D270" s="5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E270" s="7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F270" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>memory used by container wonderful_panini</t>
-        </is>
-      </c>
-      <c r="D271" s="5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E271" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F271" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>memory used by container xenodochial_sinoussi</t>
-        </is>
-      </c>
-      <c r="D272" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E272" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F272" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>memory used by container xenodochial_yalow</t>
-        </is>
-      </c>
-      <c r="D273" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E273" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F273" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>memory used by container youthful_cohen</t>
-        </is>
-      </c>
-      <c r="D274" s="5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E274" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F274" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>memory used by container youthful_swanson</t>
-        </is>
-      </c>
-      <c r="D275" s="5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E275" s="7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F275" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>memory used by container youthful_wing</t>
-        </is>
-      </c>
-      <c r="D276" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E276" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F276" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>memory used by container zealous_turing</t>
-        </is>
-      </c>
-      <c r="D277" s="5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E277" s="7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F277" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>memory used by container zen_babbage</t>
-        </is>
-      </c>
-      <c r="D278" s="5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E278" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F278" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12766,7 +12622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -12804,7 +12660,7 @@
         <v>137006</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2">
@@ -12864,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.76</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="6">
@@ -12882,13 +12738,13 @@
         <v>0.16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>10.08</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="7">
@@ -12906,13 +12762,13 @@
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>4.32</v>
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>10.49</v>
       </c>
     </row>
     <row r="8">
@@ -12936,7 +12792,7 @@
         <v>0.02</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>146.45</v>
+        <v>178.88</v>
       </c>
     </row>
     <row r="9">
@@ -12960,7 +12816,7 @@
         <v>0.83</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>826.61</v>
+        <v>834.72</v>
       </c>
     </row>
     <row r="10">
@@ -12984,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>52.41</v>
+        <v>51.62</v>
       </c>
     </row>
     <row r="11">
@@ -13032,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>19.31</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
@@ -13221,13 +13077,13 @@
         <v>0.17</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="28">
@@ -13251,7 +13107,7 @@
         <v>0.01</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>8.82</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -13275,7 +13131,7 @@
         <v>0.03</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>19.91</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="30">
@@ -13299,7 +13155,7 @@
         <v>0.01</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>26.84</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="31">
@@ -13323,7 +13179,7 @@
         <v>0.2</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>60.46</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="32">
@@ -13347,7 +13203,7 @@
         <v>0.01</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>23.53</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="33">
@@ -13365,13 +13221,13 @@
         <v>0.42</v>
       </c>
       <c r="D33" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="34">
@@ -13419,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>6.46</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="37">
@@ -13443,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="38">
@@ -13467,7 +13323,7 @@
         <v>0.03</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>20.47</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="39">
@@ -13485,13 +13341,13 @@
         <v>0.26</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="40">
@@ -13527,7 +13383,7 @@
         <v>0.01</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>12.39</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="42">
@@ -13545,13 +13401,13 @@
         <v>1.65</v>
       </c>
       <c r="D42" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>1.34</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>81.37</v>
+        <v>81.64</v>
       </c>
     </row>
     <row r="43">
@@ -13635,7 +13491,7 @@
         <v>0.19</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>45.61</v>
+        <v>45.24</v>
       </c>
     </row>
     <row r="49">
@@ -13713,13 +13569,13 @@
         <v>74.45999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>24.3</v>
+        <v>24.44</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>50.17</v>
+        <v>50.02</v>
       </c>
       <c r="F54" s="6" t="n">
-        <v>67.37</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="55">
@@ -13761,13 +13617,13 @@
         <v>0.14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>4.44</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="57">
@@ -13791,7 +13647,7 @@
         <v>0.05</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>409.79</v>
+        <v>407.57</v>
       </c>
     </row>
     <row r="58">
@@ -13809,13 +13665,13 @@
         <v>0.16</v>
       </c>
       <c r="D58" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7" t="n">
-        <v>1</v>
+        <v>0.15</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="59">
@@ -13881,13 +13737,13 @@
         <v>0.01</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>0.02</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>303.85</v>
+        <v>366.22</v>
       </c>
     </row>
     <row r="64">
@@ -14040,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>10.52</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="74">
@@ -14058,13 +13914,13 @@
         <v>5.13</v>
       </c>
       <c r="D74" t="n">
-        <v>87.16</v>
+        <v>75.33</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>82.02</v>
+        <v>70.19</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>1597.45</v>
+        <v>1367.06</v>
       </c>
     </row>
     <row r="75">
@@ -14118,13 +13974,13 @@
         <v>11.96</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="E78" s="6" t="n">
-        <v>11.41</v>
+        <v>11.39</v>
       </c>
       <c r="F78" s="6" t="n">
-        <v>95.38</v>
+        <v>95.25</v>
       </c>
     </row>
     <row r="79">
@@ -14148,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="80">
@@ -14172,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>20.22</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="81">
@@ -14235,7 +14091,7 @@
         <v>0.02</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>32.43</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="85">
@@ -14271,7 +14127,7 @@
         <v>0.5</v>
       </c>
       <c r="F86" s="6" t="n">
-        <v>73.37</v>
+        <v>73.31999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -14295,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="88">
@@ -14319,7 +14175,7 @@
         <v>0.67</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>72.81999999999999</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="89">
@@ -14343,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>2.76</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="90">
@@ -14421,13 +14277,13 @@
         <v>2.34</v>
       </c>
       <c r="D95" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>5.21</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="96">
@@ -14481,13 +14337,13 @@
         <v>16.28</v>
       </c>
       <c r="D99" t="n">
-        <v>8.039999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="E99" s="6" t="n">
-        <v>8.24</v>
+        <v>8.34</v>
       </c>
       <c r="F99" s="6" t="n">
-        <v>50.6</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="100">
@@ -14507,11 +14363,11 @@
       <c r="D100" t="n">
         <v>0.06</v>
       </c>
-      <c r="E100" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7" t="n">
-        <v>7.94</v>
+      <c r="E100" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="101">
@@ -14559,7 +14415,7 @@
         <v>0.03</v>
       </c>
       <c r="F103" s="6" t="n">
-        <v>22.96</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="104">
@@ -14580,10 +14436,10 @@
         <v>0.13</v>
       </c>
       <c r="E104" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>62.74</v>
+        <v>63.21</v>
       </c>
     </row>
     <row r="105">
@@ -14613,13 +14469,13 @@
         <v>1.87</v>
       </c>
       <c r="D106" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="E106" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F106" s="6" t="n">
-        <v>3.75</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="107">
@@ -14637,13 +14493,13 @@
         <v>2.96</v>
       </c>
       <c r="D107" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="E107" s="6" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="F107" s="6" t="n">
-        <v>36.87</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="108">
@@ -14739,7 +14595,7 @@
         <v>0.26</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>33.25</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="115">
@@ -14763,7 +14619,7 @@
         <v>2.33</v>
       </c>
       <c r="F115" s="6" t="n">
-        <v>99.3</v>
+        <v>99.23</v>
       </c>
     </row>
     <row r="116">
@@ -14799,7 +14655,7 @@
         <v>0.02</v>
       </c>
       <c r="F117" s="7" t="n">
-        <v>15.37</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="118">
@@ -14853,13 +14709,13 @@
         <v>8.56</v>
       </c>
       <c r="D121" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>49.63</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="122">
@@ -14901,13 +14757,13 @@
         <v>15.51</v>
       </c>
       <c r="D124" t="n">
-        <v>18.22</v>
+        <v>18.32</v>
       </c>
       <c r="E124" s="7" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>17.43</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="125">
@@ -14931,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>4</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="126">
@@ -14955,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="6" t="n">
-        <v>5.61</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="127">
@@ -14997,13 +14853,13 @@
         <v>34.73</v>
       </c>
       <c r="D129" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="E129" s="6" t="n">
-        <v>33.13</v>
+        <v>33.01</v>
       </c>
       <c r="F129" s="6" t="n">
-        <v>95.41</v>
+        <v>95.06</v>
       </c>
     </row>
     <row r="130">
@@ -15027,7 +14883,7 @@
         <v>0.02</v>
       </c>
       <c r="F130" s="6" t="n">
-        <v>20.32</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="131">
@@ -15099,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="6" t="n">
-        <v>18.6</v>
+        <v>33.71</v>
       </c>
     </row>
     <row r="136">
@@ -15117,13 +14973,13 @@
         <v>1.15</v>
       </c>
       <c r="D136" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="E136" s="7" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>23.04</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="137">
@@ -15147,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>5.62</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="138">
@@ -15171,7 +15027,7 @@
         <v>0</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>61.25</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="139">
@@ -15189,13 +15045,13 @@
         <v>0.05</v>
       </c>
       <c r="D139" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E139" s="7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>171.59</v>
+        <v>168.36</v>
       </c>
     </row>
     <row r="140">
@@ -15213,13 +15069,13 @@
         <v>3.08</v>
       </c>
       <c r="D140" t="n">
-        <v>29.17</v>
+        <v>28.77</v>
       </c>
       <c r="E140" s="7" t="n">
-        <v>26.08</v>
+        <v>25.68</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>845.4400000000001</v>
+        <v>832.4400000000001</v>
       </c>
     </row>
     <row r="141">
@@ -15243,7 +15099,7 @@
         <v>1.46</v>
       </c>
       <c r="F141" s="6" t="n">
-        <v>80.03</v>
+        <v>80.11</v>
       </c>
     </row>
     <row r="142">
@@ -15267,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="F142" s="6" t="n">
-        <v>15.58</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="143">
@@ -15285,13 +15141,13 @@
         <v>0.03</v>
       </c>
       <c r="D143" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E143" s="7" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>354.02</v>
+        <v>379.71</v>
       </c>
     </row>
     <row r="144">
@@ -15309,13 +15165,13 @@
         <v>6.68</v>
       </c>
       <c r="D144" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="E144" s="6" t="n">
-        <v>5.39</v>
+        <v>5.32</v>
       </c>
       <c r="F144" s="6" t="n">
-        <v>80.78</v>
+        <v>79.68000000000001</v>
       </c>
     </row>
     <row r="145">
@@ -15357,13 +15213,13 @@
         <v>0.16</v>
       </c>
       <c r="D147" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="E147" s="7" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>205.11</v>
+        <v>170.74</v>
       </c>
     </row>
     <row r="148">
@@ -15411,7 +15267,7 @@
         <v>0.03</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>117.42</v>
+        <v>130.36</v>
       </c>
     </row>
     <row r="151">
@@ -15435,7 +15291,7 @@
         <v>0.02</v>
       </c>
       <c r="F151" s="6" t="n">
-        <v>33.46</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="152">
@@ -15453,13 +15309,13 @@
         <v>0.75</v>
       </c>
       <c r="D152" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="E152" s="7" t="n">
         <v>1.21</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>160.19</v>
+        <v>160.89</v>
       </c>
     </row>
     <row r="153">
@@ -15483,7 +15339,7 @@
         <v>1.77</v>
       </c>
       <c r="F153" s="6" t="n">
-        <v>86.16</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="154">
@@ -15507,7 +15363,7 @@
         <v>0.57</v>
       </c>
       <c r="F154" s="6" t="n">
-        <v>66.3</v>
+        <v>66.36</v>
       </c>
     </row>
     <row r="155">
@@ -15558,10 +15414,10 @@
         <v>0.06</v>
       </c>
       <c r="E157" s="7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>9.4</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="158">
@@ -15585,7 +15441,7 @@
         <v>0.02</v>
       </c>
       <c r="F158" s="6" t="n">
-        <v>10.77</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="159">
@@ -15651,13 +15507,13 @@
         <v>0.73</v>
       </c>
       <c r="D163" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="E163" s="7" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="F163" s="7" t="n">
-        <v>105.89</v>
+        <v>94.34999999999999</v>
       </c>
     </row>
     <row r="164">
@@ -15675,13 +15531,13 @@
         <v>0.39</v>
       </c>
       <c r="D164" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="E164" s="7" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164" s="7" t="n">
-        <v>260.48</v>
+        <v>239.98</v>
       </c>
     </row>
     <row r="165">
@@ -15705,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>1.38</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="166">
@@ -15735,13 +15591,13 @@
         <v>0.19</v>
       </c>
       <c r="D167" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E167" s="6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F167" s="6" t="n">
-        <v>0.48</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="168">
@@ -15765,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="6" t="n">
-        <v>9.279999999999999</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="169">
@@ -15783,13 +15639,13 @@
         <v>0.04</v>
       </c>
       <c r="D169" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E169" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F169" s="6" t="n">
-        <v>2.01</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="170">
@@ -15807,13 +15663,13 @@
         <v>20.5</v>
       </c>
       <c r="D170" t="n">
-        <v>17.25</v>
+        <v>16.95</v>
       </c>
       <c r="E170" s="6" t="n">
-        <v>3.26</v>
+        <v>3.55</v>
       </c>
       <c r="F170" s="6" t="n">
-        <v>15.89</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="171">
@@ -15885,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>5.47</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -15996,13 +15852,13 @@
         <v>134.86</v>
       </c>
       <c r="D183" t="n">
-        <v>92.45</v>
+        <v>90.89</v>
       </c>
       <c r="E183" s="6" t="n">
-        <v>42.41</v>
+        <v>43.98</v>
       </c>
       <c r="F183" s="6" t="n">
-        <v>31.45</v>
+        <v>32.61</v>
       </c>
     </row>
     <row r="184">
@@ -16056,13 +15912,13 @@
         <v>0.18</v>
       </c>
       <c r="D186" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="E186" s="7" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F186" s="7" t="n">
-        <v>183.45</v>
+        <v>194.49</v>
       </c>
     </row>
     <row r="187">
@@ -16122,7 +15978,7 @@
         <v>0.03</v>
       </c>
       <c r="F190" s="6" t="n">
-        <v>23.94</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="191">
@@ -16146,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="192">
@@ -16266,7 +16122,7 @@
         <v>0.01</v>
       </c>
       <c r="F200" s="6" t="n">
-        <v>28.1</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="201">
@@ -16285,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="F201" s="6" t="n">
-        <v>24.9</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="202">
@@ -16339,14 +16195,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>cpu used by container agitated_fermat</t>
+          <t>cpu used by container agitated_kalam</t>
         </is>
       </c>
       <c r="D205" s="5" t="n">
-        <v>0.96</v>
+        <v>2.09</v>
       </c>
       <c r="E205" s="7" t="n">
-        <v>0.96</v>
+        <v>2.09</v>
       </c>
       <c r="F205" s="7" t="n">
         <v>0</v>
@@ -16355,14 +16211,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>cpu used by container agitated_kalam</t>
+          <t>cpu used by container angry_antonelli</t>
         </is>
       </c>
       <c r="D206" s="5" t="n">
-        <v>2.09</v>
+        <v>0.9</v>
       </c>
       <c r="E206" s="7" t="n">
-        <v>2.09</v>
+        <v>0.9</v>
       </c>
       <c r="F206" s="7" t="n">
         <v>0</v>
@@ -16371,14 +16227,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cpu used by container angry_antonelli</t>
+          <t>cpu used by container ask-uptycs-server</t>
         </is>
       </c>
       <c r="D207" s="5" t="n">
-        <v>0.9</v>
+        <v>0.11</v>
       </c>
       <c r="E207" s="7" t="n">
-        <v>0.9</v>
+        <v>0.11</v>
       </c>
       <c r="F207" s="7" t="n">
         <v>0</v>
@@ -16387,14 +16243,14 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>cpu used by container ask-uptycs-server</t>
+          <t>cpu used by container asset-catalog-db</t>
         </is>
       </c>
       <c r="D208" s="5" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="E208" s="7" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F208" s="7" t="n">
         <v>0</v>
@@ -16403,14 +16259,14 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>cpu used by container asset-catalog-db</t>
+          <t>cpu used by container awesome_rhodes</t>
         </is>
       </c>
       <c r="D209" s="5" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="E209" s="7" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F209" s="7" t="n">
         <v>0</v>
@@ -16419,14 +16275,14 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>cpu used by container awesome_rhodes</t>
+          <t>cpu used by container bold_davinci</t>
         </is>
       </c>
       <c r="D210" s="5" t="n">
-        <v>0.47</v>
+        <v>1.96</v>
       </c>
       <c r="E210" s="7" t="n">
-        <v>0.47</v>
+        <v>1.96</v>
       </c>
       <c r="F210" s="7" t="n">
         <v>0</v>
@@ -16435,14 +16291,14 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>cpu used by container bold_davinci</t>
+          <t>cpu used by container brave_kapitsa</t>
         </is>
       </c>
       <c r="D211" s="5" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="E211" s="7" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="F211" s="7" t="n">
         <v>0</v>
@@ -16451,14 +16307,14 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>cpu used by container brave_kapitsa</t>
+          <t>cpu used by container busy_sammet</t>
         </is>
       </c>
       <c r="D212" s="5" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="E212" s="7" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="F212" s="7" t="n">
         <v>0</v>
@@ -16467,14 +16323,14 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>cpu used by container busy_sammet</t>
+          <t>cpu used by container charming_blackwell</t>
         </is>
       </c>
       <c r="D213" s="5" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="E213" s="7" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="F213" s="7" t="n">
         <v>0</v>
@@ -16483,14 +16339,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>cpu used by container charming_blackwell</t>
+          <t>cpu used by container checksum-validator</t>
         </is>
       </c>
       <c r="D214" s="5" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="E214" s="7" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="F214" s="7" t="n">
         <v>0</v>
@@ -16499,14 +16355,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>cpu used by container checksum-validator</t>
+          <t>cpu used by container condescending_keller</t>
         </is>
       </c>
       <c r="D215" s="5" t="n">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="E215" s="7" t="n">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="F215" s="7" t="n">
         <v>0</v>
@@ -16515,14 +16371,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>cpu used by container condescending_keller</t>
+          <t>cpu used by container confident_feynman</t>
         </is>
       </c>
       <c r="D216" s="5" t="n">
-        <v>0.7</v>
+        <v>1.74</v>
       </c>
       <c r="E216" s="7" t="n">
-        <v>0.7</v>
+        <v>1.74</v>
       </c>
       <c r="F216" s="7" t="n">
         <v>0</v>
@@ -16531,14 +16387,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>cpu used by container confident_feynman</t>
+          <t>cpu used by container dazzling_margulis</t>
         </is>
       </c>
       <c r="D217" s="5" t="n">
-        <v>1.74</v>
+        <v>0.13</v>
       </c>
       <c r="E217" s="7" t="n">
-        <v>1.74</v>
+        <v>0.13</v>
       </c>
       <c r="F217" s="7" t="n">
         <v>0</v>
@@ -16547,14 +16403,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>cpu used by container dazzling_margulis</t>
+          <t>cpu used by container dreamy_bouman</t>
         </is>
       </c>
       <c r="D218" s="5" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="E218" s="7" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F218" s="7" t="n">
         <v>0</v>
@@ -16563,14 +16419,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>cpu used by container dreamy_bouman</t>
+          <t>cpu used by container dreamy_thompson</t>
         </is>
       </c>
       <c r="D219" s="5" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="E219" s="7" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="F219" s="7" t="n">
         <v>0</v>
@@ -16579,14 +16435,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>cpu used by container dreamy_thompson</t>
+          <t>cpu used by container eloquent_cartwright</t>
         </is>
       </c>
       <c r="D220" s="5" t="n">
-        <v>1.55</v>
+        <v>0.26</v>
       </c>
       <c r="E220" s="7" t="n">
-        <v>1.55</v>
+        <v>0.26</v>
       </c>
       <c r="F220" s="7" t="n">
         <v>0</v>
@@ -16595,14 +16451,14 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>cpu used by container elegant_germain</t>
+          <t>cpu used by container festive_cray</t>
         </is>
       </c>
       <c r="D221" s="5" t="n">
-        <v>0.87</v>
+        <v>1.96</v>
       </c>
       <c r="E221" s="7" t="n">
-        <v>0.87</v>
+        <v>1.96</v>
       </c>
       <c r="F221" s="7" t="n">
         <v>0</v>
@@ -16611,14 +16467,14 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>cpu used by container eloquent_bell</t>
+          <t>cpu used by container focused_torvalds</t>
         </is>
       </c>
       <c r="D222" s="5" t="n">
-        <v>0.66</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E222" s="7" t="n">
-        <v>0.66</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F222" s="7" t="n">
         <v>0</v>
@@ -16627,14 +16483,14 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>cpu used by container eloquent_cartwright</t>
+          <t>cpu used by container friendly_ishizaka</t>
         </is>
       </c>
       <c r="D223" s="5" t="n">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="E223" s="7" t="n">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="F223" s="7" t="n">
         <v>0</v>
@@ -16643,14 +16499,14 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>cpu used by container festive_cray</t>
+          <t>cpu used by container friendly_pascal</t>
         </is>
       </c>
       <c r="D224" s="5" t="n">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="E224" s="7" t="n">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="F224" s="7" t="n">
         <v>0</v>
@@ -16659,14 +16515,14 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>cpu used by container focused_torvalds</t>
+          <t>cpu used by container gifted_kalam</t>
         </is>
       </c>
       <c r="D225" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E225" s="7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F225" s="7" t="n">
         <v>0</v>
@@ -16675,14 +16531,14 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>cpu used by container friendly_ishizaka</t>
+          <t>cpu used by container great_kare</t>
         </is>
       </c>
       <c r="D226" s="5" t="n">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="E226" s="7" t="n">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="F226" s="7" t="n">
         <v>0</v>
@@ -16691,14 +16547,14 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>cpu used by container friendly_pascal</t>
+          <t>cpu used by container great_leakey</t>
         </is>
       </c>
       <c r="D227" s="5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="E227" s="7" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="F227" s="7" t="n">
         <v>0</v>
@@ -16707,14 +16563,14 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>cpu used by container gifted_kalam</t>
+          <t>cpu used by container happy_driscoll</t>
         </is>
       </c>
       <c r="D228" s="5" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="E228" s="7" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F228" s="7" t="n">
         <v>0</v>
@@ -16723,14 +16579,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>cpu used by container great_kare</t>
+          <t>cpu used by container happy_kirch</t>
         </is>
       </c>
       <c r="D229" s="5" t="n">
-        <v>1.28</v>
+        <v>1.97</v>
       </c>
       <c r="E229" s="7" t="n">
-        <v>1.28</v>
+        <v>1.97</v>
       </c>
       <c r="F229" s="7" t="n">
         <v>0</v>
@@ -16739,14 +16595,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>cpu used by container great_leakey</t>
+          <t>cpu used by container happy_williams</t>
         </is>
       </c>
       <c r="D230" s="5" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="E230" s="7" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="F230" s="7" t="n">
         <v>0</v>
@@ -16755,14 +16611,14 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>cpu used by container happy_driscoll</t>
+          <t>cpu used by container hardcore_booth</t>
         </is>
       </c>
       <c r="D231" s="5" t="n">
-        <v>0.44</v>
+        <v>1.18</v>
       </c>
       <c r="E231" s="7" t="n">
-        <v>0.44</v>
+        <v>1.18</v>
       </c>
       <c r="F231" s="7" t="n">
         <v>0</v>
@@ -16771,14 +16627,14 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>cpu used by container happy_kirch</t>
+          <t>cpu used by container heuristic_boyd</t>
         </is>
       </c>
       <c r="D232" s="5" t="n">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="E232" s="7" t="n">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="F232" s="7" t="n">
         <v>0</v>
@@ -16787,14 +16643,14 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>cpu used by container happy_williams</t>
+          <t>cpu used by container infallible_diffie</t>
         </is>
       </c>
       <c r="D233" s="5" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="E233" s="7" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="F233" s="7" t="n">
         <v>0</v>
@@ -16803,14 +16659,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>cpu used by container hardcore_booth</t>
+          <t>cpu used by container intelligent_bohr</t>
         </is>
       </c>
       <c r="D234" s="5" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="E234" s="7" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="F234" s="7" t="n">
         <v>0</v>
@@ -16819,14 +16675,14 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>cpu used by container heuristic_boyd</t>
+          <t>cpu used by container jolly_chandrasekhar</t>
         </is>
       </c>
       <c r="D235" s="5" t="n">
-        <v>1.62</v>
+        <v>0.61</v>
       </c>
       <c r="E235" s="7" t="n">
-        <v>1.62</v>
+        <v>0.61</v>
       </c>
       <c r="F235" s="7" t="n">
         <v>0</v>
@@ -16835,14 +16691,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>cpu used by container infallible_diffie</t>
+          <t>cpu used by container laughing_margulis</t>
         </is>
       </c>
       <c r="D236" s="5" t="n">
-        <v>0.79</v>
+        <v>2.15</v>
       </c>
       <c r="E236" s="7" t="n">
-        <v>0.79</v>
+        <v>2.15</v>
       </c>
       <c r="F236" s="7" t="n">
         <v>0</v>
@@ -16851,14 +16707,14 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>cpu used by container inspiring_jepsen</t>
+          <t>cpu used by container loving_goldwasser</t>
         </is>
       </c>
       <c r="D237" s="5" t="n">
-        <v>1.89</v>
+        <v>0.55</v>
       </c>
       <c r="E237" s="7" t="n">
-        <v>1.89</v>
+        <v>0.55</v>
       </c>
       <c r="F237" s="7" t="n">
         <v>0</v>
@@ -16867,14 +16723,14 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>cpu used by container intelligent_bohr</t>
+          <t>cpu used by container loving_taussig</t>
         </is>
       </c>
       <c r="D238" s="5" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="E238" s="7" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="F238" s="7" t="n">
         <v>0</v>
@@ -16883,14 +16739,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>cpu used by container jolly_chandrasekhar</t>
+          <t>cpu used by container lucid_mestorf</t>
         </is>
       </c>
       <c r="D239" s="5" t="n">
-        <v>0.61</v>
+        <v>1.49</v>
       </c>
       <c r="E239" s="7" t="n">
-        <v>0.61</v>
+        <v>1.49</v>
       </c>
       <c r="F239" s="7" t="n">
         <v>0</v>
@@ -16899,14 +16755,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>cpu used by container jolly_merkle</t>
+          <t>cpu used by container musing_morse</t>
         </is>
       </c>
       <c r="D240" s="5" t="n">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E240" s="7" t="n">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F240" s="7" t="n">
         <v>0</v>
@@ -16915,14 +16771,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>cpu used by container laughing_margulis</t>
+          <t>cpu used by container musing_tereshkova</t>
         </is>
       </c>
       <c r="D241" s="5" t="n">
-        <v>2.15</v>
+        <v>0.99</v>
       </c>
       <c r="E241" s="7" t="n">
-        <v>2.15</v>
+        <v>0.99</v>
       </c>
       <c r="F241" s="7" t="n">
         <v>0</v>
@@ -16931,14 +16787,14 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>cpu used by container loving_goldwasser</t>
+          <t>cpu used by container nervous_kowalevski</t>
         </is>
       </c>
       <c r="D242" s="5" t="n">
-        <v>0.55</v>
+        <v>1.33</v>
       </c>
       <c r="E242" s="7" t="n">
-        <v>0.55</v>
+        <v>1.33</v>
       </c>
       <c r="F242" s="7" t="n">
         <v>0</v>
@@ -16947,14 +16803,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>cpu used by container loving_taussig</t>
+          <t>cpu used by container optimistic_sanderson</t>
         </is>
       </c>
       <c r="D243" s="5" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="E243" s="7" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="F243" s="7" t="n">
         <v>0</v>
@@ -16963,14 +16819,14 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>cpu used by container lucid_mestorf</t>
+          <t>cpu used by container pgbouncer-threatdb</t>
         </is>
       </c>
       <c r="D244" s="5" t="n">
-        <v>1.49</v>
+        <v>0.01</v>
       </c>
       <c r="E244" s="7" t="n">
-        <v>1.49</v>
+        <v>0.01</v>
       </c>
       <c r="F244" s="7" t="n">
         <v>0</v>
@@ -16979,14 +16835,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>cpu used by container magical_hawking</t>
+          <t>cpu used by container postgres-prestogatewaydb</t>
         </is>
       </c>
       <c r="D245" s="5" t="n">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="E245" s="7" t="n">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="F245" s="7" t="n">
         <v>0</v>
@@ -16995,14 +16851,14 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>cpu used by container modest_jones</t>
+          <t>cpu used by container postgres-threatdb</t>
         </is>
       </c>
       <c r="D246" s="5" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E246" s="7" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F246" s="7" t="n">
         <v>0</v>
@@ -17011,14 +16867,14 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>cpu used by container musing_morse</t>
+          <t>cpu used by container prestogateway</t>
         </is>
       </c>
       <c r="D247" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="E247" s="7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="F247" s="7" t="n">
         <v>0</v>
@@ -17027,14 +16883,14 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>cpu used by container musing_tereshkova</t>
+          <t>cpu used by container quirky_pare</t>
         </is>
       </c>
       <c r="D248" s="5" t="n">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="E248" s="7" t="n">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="F248" s="7" t="n">
         <v>0</v>
@@ -17043,14 +16899,14 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>cpu used by container nervous_kowalevski</t>
+          <t>cpu used by container quirky_ramanujan</t>
         </is>
       </c>
       <c r="D249" s="5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="E249" s="7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="F249" s="7" t="n">
         <v>0</v>
@@ -17059,14 +16915,14 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>cpu used by container nice_carver</t>
+          <t>cpu used by container quizzical_hermann</t>
         </is>
       </c>
       <c r="D250" s="5" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E250" s="7" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F250" s="7" t="n">
         <v>0</v>
@@ -17075,14 +16931,14 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>cpu used by container optimistic_sanderson</t>
+          <t>cpu used by container relaxed_bassi</t>
         </is>
       </c>
       <c r="D251" s="5" t="n">
-        <v>0.47</v>
+        <v>1.01</v>
       </c>
       <c r="E251" s="7" t="n">
-        <v>0.47</v>
+        <v>1.01</v>
       </c>
       <c r="F251" s="7" t="n">
         <v>0</v>
@@ -17091,14 +16947,14 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>cpu used by container pgbouncer-threatdb</t>
+          <t>cpu used by container relaxed_mestorf</t>
         </is>
       </c>
       <c r="D252" s="5" t="n">
-        <v>0.01</v>
+        <v>2.01</v>
       </c>
       <c r="E252" s="7" t="n">
-        <v>0.01</v>
+        <v>2.01</v>
       </c>
       <c r="F252" s="7" t="n">
         <v>0</v>
@@ -17107,14 +16963,14 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>cpu used by container postgres-prestogatewaydb</t>
+          <t>cpu used by container sad_kepler</t>
         </is>
       </c>
       <c r="D253" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="E253" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="F253" s="7" t="n">
         <v>0</v>
@@ -17123,14 +16979,14 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>cpu used by container postgres-threatdb</t>
+          <t>cpu used by container silly_jennings</t>
         </is>
       </c>
       <c r="D254" s="5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="E254" s="7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="F254" s="7" t="n">
         <v>0</v>
@@ -17139,14 +16995,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>cpu used by container prestogateway</t>
+          <t>cpu used by container stoic_robinson</t>
         </is>
       </c>
       <c r="D255" s="5" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="E255" s="7" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="F255" s="7" t="n">
         <v>0</v>
@@ -17155,14 +17011,14 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>cpu used by container quirky_pare</t>
+          <t>cpu used by container suspicious_buck</t>
         </is>
       </c>
       <c r="D256" s="5" t="n">
-        <v>0.05</v>
+        <v>1.98</v>
       </c>
       <c r="E256" s="7" t="n">
-        <v>0.05</v>
+        <v>1.98</v>
       </c>
       <c r="F256" s="7" t="n">
         <v>0</v>
@@ -17171,14 +17027,14 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>cpu used by container quirky_ramanujan</t>
+          <t>cpu used by container suspicious_clarke</t>
         </is>
       </c>
       <c r="D257" s="5" t="n">
-        <v>1.31</v>
+        <v>1.94</v>
       </c>
       <c r="E257" s="7" t="n">
-        <v>1.31</v>
+        <v>1.94</v>
       </c>
       <c r="F257" s="7" t="n">
         <v>0</v>
@@ -17187,14 +17043,14 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>cpu used by container quizzical_hermann</t>
+          <t>cpu used by container sweet_wing</t>
         </is>
       </c>
       <c r="D258" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="E258" s="7" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="F258" s="7" t="n">
         <v>0</v>
@@ -17203,7 +17059,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>cpu used by container relaxed_bassi</t>
+          <t>cpu used by container upbeat_kowalevski</t>
         </is>
       </c>
       <c r="D259" s="5" t="n">
@@ -17219,14 +17075,14 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>cpu used by container relaxed_mestorf</t>
+          <t>cpu used by container vibrant_hodgkin</t>
         </is>
       </c>
       <c r="D260" s="5" t="n">
-        <v>2.01</v>
+        <v>1.01</v>
       </c>
       <c r="E260" s="7" t="n">
-        <v>2.01</v>
+        <v>1.01</v>
       </c>
       <c r="F260" s="7" t="n">
         <v>0</v>
@@ -17235,14 +17091,14 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>cpu used by container sad_kepler</t>
+          <t>cpu used by container wizardly_cori</t>
         </is>
       </c>
       <c r="D261" s="5" t="n">
-        <v>0.49</v>
+        <v>2.01</v>
       </c>
       <c r="E261" s="7" t="n">
-        <v>0.49</v>
+        <v>2.01</v>
       </c>
       <c r="F261" s="7" t="n">
         <v>0</v>
@@ -17251,14 +17107,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>cpu used by container silly_jennings</t>
+          <t>cpu used by container wonderful_panini</t>
         </is>
       </c>
       <c r="D262" s="5" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="E262" s="7" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="F262" s="7" t="n">
         <v>0</v>
@@ -17267,14 +17123,14 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>cpu used by container stoic_robinson</t>
+          <t>cpu used by container xenodochial_sinoussi</t>
         </is>
       </c>
       <c r="D263" s="5" t="n">
-        <v>0.99</v>
+        <v>1.62</v>
       </c>
       <c r="E263" s="7" t="n">
-        <v>0.99</v>
+        <v>1.62</v>
       </c>
       <c r="F263" s="7" t="n">
         <v>0</v>
@@ -17283,14 +17139,14 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>cpu used by container suspicious_buck</t>
+          <t>cpu used by container xenodochial_yalow</t>
         </is>
       </c>
       <c r="D264" s="5" t="n">
-        <v>1.98</v>
+        <v>1</v>
       </c>
       <c r="E264" s="7" t="n">
-        <v>1.98</v>
+        <v>1</v>
       </c>
       <c r="F264" s="7" t="n">
         <v>0</v>
@@ -17299,14 +17155,14 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>cpu used by container suspicious_clarke</t>
+          <t>cpu used by container youthful_cohen</t>
         </is>
       </c>
       <c r="D265" s="5" t="n">
-        <v>1.94</v>
+        <v>1</v>
       </c>
       <c r="E265" s="7" t="n">
-        <v>1.94</v>
+        <v>1</v>
       </c>
       <c r="F265" s="7" t="n">
         <v>0</v>
@@ -17315,14 +17171,14 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>cpu used by container sweet_wing</t>
+          <t>cpu used by container youthful_swanson</t>
         </is>
       </c>
       <c r="D266" s="5" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="E266" s="7" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="F266" s="7" t="n">
         <v>0</v>
@@ -17331,14 +17187,14 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>cpu used by container upbeat_kowalevski</t>
+          <t>cpu used by container youthful_wing</t>
         </is>
       </c>
       <c r="D267" s="5" t="n">
-        <v>1.01</v>
+        <v>0.75</v>
       </c>
       <c r="E267" s="7" t="n">
-        <v>1.01</v>
+        <v>0.75</v>
       </c>
       <c r="F267" s="7" t="n">
         <v>0</v>
@@ -17347,14 +17203,14 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>cpu used by container vibrant_hodgkin</t>
+          <t>cpu used by container zealous_turing</t>
         </is>
       </c>
       <c r="D268" s="5" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="E268" s="7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="F268" s="7" t="n">
         <v>0</v>
@@ -17363,160 +17219,16 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>cpu used by container vigilant_jackson</t>
+          <t>cpu used by container zen_babbage</t>
         </is>
       </c>
       <c r="D269" s="5" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="E269" s="7" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>cpu used by container wizardly_cori</t>
-        </is>
-      </c>
-      <c r="D270" s="5" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E270" s="7" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F270" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>cpu used by container wonderful_panini</t>
-        </is>
-      </c>
-      <c r="D271" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E271" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F271" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>cpu used by container xenodochial_sinoussi</t>
-        </is>
-      </c>
-      <c r="D272" s="5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E272" s="7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F272" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>cpu used by container xenodochial_yalow</t>
-        </is>
-      </c>
-      <c r="D273" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E273" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F273" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>cpu used by container youthful_cohen</t>
-        </is>
-      </c>
-      <c r="D274" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F274" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>cpu used by container youthful_swanson</t>
-        </is>
-      </c>
-      <c r="D275" s="5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E275" s="7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F275" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>cpu used by container youthful_wing</t>
-        </is>
-      </c>
-      <c r="D276" s="5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E276" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F276" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>cpu used by container zealous_turing</t>
-        </is>
-      </c>
-      <c r="D277" s="5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E277" s="7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="F277" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>cpu used by container zen_babbage</t>
-        </is>
-      </c>
-      <c r="D278" s="5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="E278" s="7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="F278" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17568,7 +17280,7 @@
         <v>137006</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2">
@@ -17586,11 +17298,11 @@
         <v>674.87</v>
       </c>
       <c r="D2" t="n">
-        <v>1102.29</v>
+        <v>1088.1</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>63.33% (427.41 GB)</t>
+          <t>61.23% (413.23 GB)</t>
         </is>
       </c>
     </row>
@@ -17609,11 +17321,11 @@
         <v>1494.82</v>
       </c>
       <c r="D3" t="n">
-        <v>1327.83</v>
+        <v>1326.48</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>11.17% (166.99 GB)</t>
+          <t>11.26% (168.34 GB)</t>
         </is>
       </c>
     </row>
@@ -17632,11 +17344,11 @@
         <v>27.86</v>
       </c>
       <c r="D4" t="n">
-        <v>29.67</v>
+        <v>29.78</v>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>6.48% (1.81 GB)</t>
+          <t>6.90% (1.92 GB)</t>
         </is>
       </c>
     </row>
@@ -17688,7 +17400,7 @@
         <v>137006</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2">
@@ -17706,11 +17418,11 @@
         <v>215.41</v>
       </c>
       <c r="D2" t="n">
-        <v>230.42</v>
+        <v>217.07</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>6.97% (15.02 cores)</t>
+          <t>0.77% (1.67 cores)</t>
         </is>
       </c>
     </row>
@@ -17729,11 +17441,11 @@
         <v>157.04</v>
       </c>
       <c r="D3" t="n">
-        <v>54.26</v>
+        <v>54.39</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>65.45% (102.78 cores)</t>
+          <t>65.36% (102.65 cores)</t>
         </is>
       </c>
     </row>
@@ -17752,11 +17464,11 @@
         <v>7.84</v>
       </c>
       <c r="D4" t="n">
-        <v>31.45</v>
+        <v>31.5</v>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>300.94% (23.61 cores)</t>
+          <t>301.60% (23.66 cores)</t>
         </is>
       </c>
     </row>
@@ -17788,8 +17500,8 @@
     <col width="58" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -17803,7 +17515,7 @@
         <v>137006</v>
       </c>
       <c r="C1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="2"/>
@@ -17817,13 +17529,13 @@
         <v>2837.8</v>
       </c>
       <c r="C3" t="n">
-        <v>3519.81</v>
+        <v>3498.4</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>682.01</v>
+        <v>660.6</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -17836,13 +17548,13 @@
         <v>368.93</v>
       </c>
       <c r="C4" t="n">
-        <v>395.43</v>
+        <v>372.32</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>26.5</v>
+        <v>3.39</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -17879,7 +17591,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n">
-        <v>138023</v>
+        <v>138005</v>
       </c>
     </row>
     <row r="3">
@@ -18574,7 +18286,7 @@
       </c>
       <c r="B60" s="5" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>o</t>
         </is>
       </c>
     </row>
